--- a/Requirments/SRS/SRS.xlsx
+++ b/Requirments/SRS/SRS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271F4B8C-D8DC-4759-91C4-878084FB112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="7632"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="3" r:id="rId1"/>
@@ -676,9 +677,6 @@
     <t>https://drive.google.com/open?id=13qdB30mE2PC71OejKKgirtDKdIYEk0KB&amp;usp=drive_fs</t>
   </si>
   <si>
-    <t xml:space="preserve">Search icon shall be clicked after entering an email </t>
-  </si>
-  <si>
     <t xml:space="preserve">If the entered Email is exists, the admin can delete its corresponding account by pressing on delete button </t>
   </si>
   <si>
@@ -742,39 +740,21 @@
     <t>Price input shall be numeric only</t>
   </si>
   <si>
-    <t>Price input shall be with minimum = 0</t>
-  </si>
-  <si>
     <t>Price input shall not accept special characters</t>
   </si>
   <si>
     <t>Price input shall not accept letters</t>
   </si>
   <si>
-    <t>User shall find the option to search by Address (Optional)</t>
-  </si>
-  <si>
     <t>Search_004</t>
   </si>
   <si>
-    <t>Address field shall allow alphanumeric characters</t>
-  </si>
-  <si>
-    <t>Address field shall allow spaces</t>
-  </si>
-  <si>
-    <t>Address field shall allow commas</t>
-  </si>
-  <si>
     <t>If no results match the search, a message shall appear: 'No cars found matching your filters.'</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1EauZiQBb7Ti_tGkgY-y-Kx5kJ7PTc688/view?usp=sharing</t>
   </si>
   <si>
-    <t>User shall be able to combine multiple filters in a single search query search with (Car name &amp; Year &amp; Price &amp; Address) at the same search</t>
-  </si>
-  <si>
     <t>Reserve</t>
   </si>
   <si>
@@ -1711,9 +1691,6 @@
     <t>contact number should start with country code 201</t>
   </si>
   <si>
-    <t>If the enterd Email is already exist, error message appears with the following text: "No User found matching your filters"</t>
-  </si>
-  <si>
     <t>If the search field is blank and the delete button is clicked, The field turns red</t>
   </si>
   <si>
@@ -1729,20 +1706,44 @@
     <t>Search_016</t>
   </si>
   <si>
-    <t>the max price is 2147483647 (EGP)</t>
-  </si>
-  <si>
-    <t>Address Follow the same criteria of advertisement</t>
-  </si>
-  <si>
     <t>Search_015</t>
+  </si>
+  <si>
+    <t>If the enterd Email doesn't exist, error message appears with the following text: "No User found matching your filters"</t>
+  </si>
+  <si>
+    <t>City field shall allow alphanumeric characters</t>
+  </si>
+  <si>
+    <t>City field shall allow spaces</t>
+  </si>
+  <si>
+    <t>City field shall allow commas</t>
+  </si>
+  <si>
+    <t>City Follow the same criteria of advertisement</t>
+  </si>
+  <si>
+    <t>User shall be able to combine multiple filters in a single search query search with (Car name &amp; Year &amp; Price &amp; City) at the same search</t>
+  </si>
+  <si>
+    <t>Price input shall not be = 0</t>
+  </si>
+  <si>
+    <t>the max price is 2147483647 (EGP) and min price is 100,000</t>
+  </si>
+  <si>
+    <t>User shall find the option to search by City (Optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search button shall be clicked after entering an email </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2675,6 +2676,45 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2690,15 +2730,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2718,36 +2749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,7 +2769,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral 2" xfId="2"/>
+    <cellStyle name="Neutral 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -2947,12 +2948,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D1:F213" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="D1:F213"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D1:F213" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="D1:F213" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="SRS description" dataDxfId="2"/>
-    <tableColumn id="2" name="CRS_ID" dataDxfId="1"/>
-    <tableColumn id="3" name="Wireframe example" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SRS description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CRS_ID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Wireframe example" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3274,24 +3275,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="151.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="83.8984375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="151.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="83.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3313,11 +3314,11 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="88" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -3333,11 +3334,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="94"/>
+    <row r="3" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="104"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="26" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>92</v>
@@ -3349,11 +3350,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="94"/>
+    <row r="4" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="104"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="26" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>95</v>
@@ -3365,11 +3366,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="94"/>
+    <row r="5" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="104"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>94</v>
@@ -3381,11 +3382,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="94"/>
+    <row r="6" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="104"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="26" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>93</v>
@@ -3397,11 +3398,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="94"/>
+    <row r="7" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="104"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="26" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>97</v>
@@ -3413,11 +3414,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="94"/>
+    <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="104"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="26" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>98</v>
@@ -3429,11 +3430,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="94"/>
+    <row r="9" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="104"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="26" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>99</v>
@@ -3445,11 +3446,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="94"/>
+    <row r="10" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="104"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="26" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>100</v>
@@ -3461,11 +3462,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="94"/>
+    <row r="11" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="104"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>96</v>
@@ -3477,27 +3478,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="94"/>
+    <row r="12" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="104"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="26" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="55" customFormat="1" ht="42" thickBot="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="94"/>
+    <row r="13" spans="1:8" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="104"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="26" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>103</v>
@@ -3509,21 +3510,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="95"/>
+    <row r="14" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="105"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="77" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:8" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:8" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="113" t="s">
         <v>3</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>16</v>
@@ -3543,27 +3544,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="16" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="113"/>
       <c r="B16" s="116"/>
       <c r="C16" s="77" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="17" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="113"/>
       <c r="B17" s="116"/>
       <c r="C17" s="77" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>19</v>
@@ -3575,11 +3576,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="18" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="113"/>
       <c r="B18" s="116"/>
       <c r="C18" s="77" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>20</v>
@@ -3591,27 +3592,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:6" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="113"/>
       <c r="B19" s="116"/>
       <c r="C19" s="77" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="20" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="113"/>
       <c r="B20" s="116"/>
       <c r="C20" s="77" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>23</v>
@@ -3623,11 +3624,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="21" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="113"/>
       <c r="B21" s="116"/>
       <c r="C21" s="77" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>24</v>
@@ -3639,11 +3640,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="22" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="113"/>
       <c r="B22" s="116"/>
       <c r="C22" s="77" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>25</v>
@@ -3655,11 +3656,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="23" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="113"/>
       <c r="B23" s="116"/>
       <c r="C23" s="77" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>26</v>
@@ -3671,27 +3672,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="24" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="113"/>
       <c r="B24" s="116"/>
       <c r="C24" s="77" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="25" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="113"/>
       <c r="B25" s="116"/>
       <c r="C25" s="77" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>28</v>
@@ -3703,11 +3704,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="26" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="113"/>
       <c r="B26" s="116"/>
       <c r="C26" s="77" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>29</v>
@@ -3719,27 +3720,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="113"/>
       <c r="B27" s="116"/>
       <c r="C27" s="77" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="28" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="113"/>
       <c r="B28" s="116"/>
       <c r="C28" s="77" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>32</v>
@@ -3751,11 +3752,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="29" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="113"/>
       <c r="B29" s="116"/>
       <c r="C29" s="77" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>33</v>
@@ -3767,11 +3768,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="30" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="113"/>
       <c r="B30" s="116"/>
       <c r="C30" s="77" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>34</v>
@@ -3783,11 +3784,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="31" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="113"/>
       <c r="B31" s="116"/>
       <c r="C31" s="77" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>35</v>
@@ -3799,14 +3800,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="32" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="113"/>
       <c r="B32" s="116"/>
       <c r="C32" s="77" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>7</v>
@@ -3815,11 +3816,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="33" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="113"/>
       <c r="B33" s="116"/>
       <c r="C33" s="77" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>36</v>
@@ -3831,27 +3832,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="34" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="113"/>
       <c r="B34" s="116"/>
       <c r="C34" s="77" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="35" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="113"/>
       <c r="B35" s="116"/>
       <c r="C35" s="77" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>39</v>
@@ -3863,11 +3864,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="36" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="113"/>
       <c r="B36" s="116"/>
       <c r="C36" s="77" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>40</v>
@@ -3879,11 +3880,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="37" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="113"/>
       <c r="B37" s="116"/>
       <c r="C37" s="77" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>41</v>
@@ -3895,11 +3896,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="38" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="113"/>
       <c r="B38" s="116"/>
       <c r="C38" s="77" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>42</v>
@@ -3911,27 +3912,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="113"/>
       <c r="B39" s="116"/>
       <c r="C39" s="77" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="40" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="113"/>
       <c r="B40" s="116"/>
       <c r="C40" s="77" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>44</v>
@@ -3943,11 +3944,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="41" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="113"/>
       <c r="B41" s="116"/>
       <c r="C41" s="77" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>45</v>
@@ -3959,43 +3960,43 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="42" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="113"/>
       <c r="B42" s="116"/>
       <c r="C42" s="77" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="43" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="113"/>
       <c r="B43" s="116"/>
       <c r="C43" s="77" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="44" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="113"/>
       <c r="B44" s="116"/>
       <c r="C44" s="77" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>49</v>
@@ -4007,11 +4008,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="45" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="113"/>
       <c r="B45" s="116"/>
       <c r="C45" s="77" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>50</v>
@@ -4023,43 +4024,43 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="46" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="113"/>
       <c r="B46" s="116"/>
       <c r="C46" s="77" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="47" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="113"/>
       <c r="B47" s="116"/>
       <c r="C47" s="77" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="48" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="113"/>
       <c r="B48" s="116"/>
       <c r="C48" s="77" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>54</v>
@@ -4071,75 +4072,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="49" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="113"/>
       <c r="B49" s="116"/>
       <c r="C49" s="77" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="50" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="113"/>
       <c r="B50" s="116"/>
       <c r="C50" s="77" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="51" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="113"/>
       <c r="B51" s="116"/>
       <c r="C51" s="77" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="52" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="113"/>
       <c r="B52" s="116"/>
       <c r="C52" s="77" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="53" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="113"/>
       <c r="B53" s="116"/>
       <c r="C53" s="77" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>57</v>
@@ -4151,11 +4152,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="54" spans="1:6" s="55" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="113"/>
       <c r="B54" s="116"/>
       <c r="C54" s="77" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>58</v>
@@ -4167,46 +4168,46 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="55" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="113"/>
       <c r="B55" s="116"/>
       <c r="C55" s="77" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="56" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="113"/>
       <c r="B56" s="116"/>
       <c r="C56" s="77" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="57" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="113"/>
       <c r="B57" s="116"/>
       <c r="C57" s="77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>10</v>
@@ -4215,14 +4216,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="58" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="113"/>
       <c r="B58" s="116"/>
       <c r="C58" s="77" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>10</v>
@@ -4231,110 +4232,110 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="59" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="113"/>
       <c r="B59" s="116"/>
       <c r="C59" s="77" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F59" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="60" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="113"/>
       <c r="B60" s="116"/>
       <c r="C60" s="77" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="61" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="113"/>
       <c r="B61" s="116"/>
       <c r="C61" s="77" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="62" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="113"/>
       <c r="B62" s="116"/>
       <c r="C62" s="77" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F62" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="63" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="113"/>
       <c r="B63" s="116"/>
       <c r="C63" s="77" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="64" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="113"/>
       <c r="B64" s="116"/>
       <c r="C64" s="77" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="65" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="113"/>
       <c r="B65" s="116"/>
       <c r="C65" s="77" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>11</v>
@@ -4343,14 +4344,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="66" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="113"/>
       <c r="B66" s="116"/>
       <c r="C66" s="77" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>11</v>
@@ -4359,43 +4360,43 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="67" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="113"/>
       <c r="B67" s="116"/>
       <c r="C67" s="77" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="68" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="113"/>
       <c r="B68" s="116"/>
       <c r="C68" s="77" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="69" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="113"/>
       <c r="B69" s="116"/>
       <c r="C69" s="77" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>72</v>
@@ -4407,11 +4408,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="70" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="113"/>
       <c r="B70" s="116"/>
       <c r="C70" s="77" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>73</v>
@@ -4423,11 +4424,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="71" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="113"/>
       <c r="B71" s="116"/>
       <c r="C71" s="77" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>74</v>
@@ -4439,111 +4440,111 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="72" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="113"/>
       <c r="B72" s="116"/>
       <c r="C72" s="77" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="73" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="113"/>
       <c r="B73" s="116"/>
       <c r="C73" s="77" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="74" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="113"/>
       <c r="B74" s="116"/>
       <c r="C74" s="77" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="75" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="113"/>
       <c r="B75" s="116"/>
       <c r="C75" s="77" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="76" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="114"/>
       <c r="B76" s="117"/>
       <c r="C76" s="77" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F76" s="37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A77" s="110" t="s">
+    <row r="77" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="107" t="s">
+      <c r="B77" s="95" t="s">
         <v>172</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F77" s="62" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A78" s="111"/>
-      <c r="B78" s="108"/>
+    <row r="78" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="99"/>
+      <c r="B78" s="96"/>
       <c r="C78" s="77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>173</v>
@@ -4555,107 +4556,107 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A79" s="111"/>
-      <c r="B79" s="108"/>
+    <row r="79" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="99"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="77" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>174</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F79" s="63" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A80" s="111"/>
-      <c r="B80" s="108"/>
+    <row r="80" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="99"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="77" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>175</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F80" s="63" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A81" s="111"/>
-      <c r="B81" s="108"/>
+    <row r="81" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="99"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="77" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>176</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F81" s="64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A82" s="111"/>
-      <c r="B82" s="108"/>
+    <row r="82" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="99"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="77" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>177</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F82" s="64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A83" s="111"/>
-      <c r="B83" s="108"/>
+    <row r="83" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="99"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="77" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>178</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F83" s="64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A84" s="111"/>
-      <c r="B84" s="108"/>
+    <row r="84" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="99"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="77" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>179</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F84" s="64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A85" s="111"/>
-      <c r="B85" s="108"/>
+    <row r="85" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="99"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="77" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>180</v>
@@ -4667,171 +4668,171 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A86" s="111"/>
-      <c r="B86" s="108"/>
+    <row r="86" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="99"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="77" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F86" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A87" s="111"/>
-      <c r="B87" s="108"/>
+    <row r="87" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="99"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="77" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>182</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F87" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A88" s="111"/>
-      <c r="B88" s="108"/>
+    <row r="88" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="99"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="77" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>183</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F88" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A89" s="111"/>
-      <c r="B89" s="108"/>
+    <row r="89" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="99"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="77" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F89" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A90" s="111"/>
-      <c r="B90" s="108"/>
+    <row r="90" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="99"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="77" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F90" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A91" s="111"/>
-      <c r="B91" s="108"/>
+    <row r="91" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="99"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="77" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F91" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A92" s="111"/>
-      <c r="B92" s="108"/>
+    <row r="92" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="99"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="77" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F92" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A93" s="111"/>
-      <c r="B93" s="108"/>
+    <row r="93" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="99"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="77" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F93" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A94" s="111"/>
-      <c r="B94" s="108"/>
+    <row r="94" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="99"/>
+      <c r="B94" s="96"/>
       <c r="C94" s="77" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F94" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A95" s="111"/>
-      <c r="B95" s="108"/>
+    <row r="95" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="99"/>
+      <c r="B95" s="96"/>
       <c r="C95" s="77" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F95" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A96" s="111"/>
-      <c r="B96" s="108"/>
+    <row r="96" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="99"/>
+      <c r="B96" s="96"/>
       <c r="C96" s="77" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>119</v>
@@ -4843,107 +4844,107 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A97" s="111"/>
-      <c r="B97" s="108"/>
+    <row r="97" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="99"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="77" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F97" s="64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A98" s="111"/>
-      <c r="B98" s="108"/>
+    <row r="98" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="99"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="77" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F98" s="64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A99" s="111"/>
-      <c r="B99" s="108"/>
+    <row r="99" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="99"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="77" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>123</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F99" s="64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A100" s="111"/>
-      <c r="B100" s="108"/>
+    <row r="100" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="99"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="77" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>124</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F100" s="64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A101" s="111"/>
-      <c r="B101" s="108"/>
+    <row r="101" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="99"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="77" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F101" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A102" s="111"/>
-      <c r="B102" s="108"/>
+    <row r="102" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="99"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="77" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>186</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F102" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A103" s="111"/>
-      <c r="B103" s="108"/>
+    <row r="103" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="99"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="77" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>185</v>
@@ -4955,187 +4956,187 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A104" s="111"/>
-      <c r="B104" s="108"/>
+    <row r="104" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="99"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="77" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D104" s="22" t="s">
         <v>184</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F104" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A105" s="111"/>
-      <c r="B105" s="108"/>
+    <row r="105" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="99"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="77" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>126</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F105" s="64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A106" s="111"/>
-      <c r="B106" s="108"/>
+    <row r="106" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="99"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="77" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>187</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F106" s="64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A107" s="111"/>
-      <c r="B107" s="108"/>
+    <row r="107" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="99"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="77" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>188</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F107" s="64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A108" s="111"/>
-      <c r="B108" s="108"/>
+    <row r="108" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="99"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="77" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D108" s="22" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F108" s="64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A109" s="111"/>
-      <c r="B109" s="108"/>
+    <row r="109" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="99"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="77" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F109" s="64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A110" s="111"/>
-      <c r="B110" s="108"/>
+    <row r="110" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="99"/>
+      <c r="B110" s="96"/>
       <c r="C110" s="77" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>131</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F110" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A111" s="111"/>
-      <c r="B111" s="108"/>
+    <row r="111" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="99"/>
+      <c r="B111" s="96"/>
       <c r="C111" s="77" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F111" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A112" s="111"/>
-      <c r="B112" s="108"/>
+    <row r="112" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="99"/>
+      <c r="B112" s="96"/>
       <c r="C112" s="77" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>133</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F112" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A113" s="111"/>
-      <c r="B113" s="108"/>
+    <row r="113" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="99"/>
+      <c r="B113" s="96"/>
       <c r="C113" s="77" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F113" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A114" s="111"/>
-      <c r="B114" s="108"/>
+    <row r="114" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="99"/>
+      <c r="B114" s="96"/>
       <c r="C114" s="77" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F114" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A115" s="111"/>
-      <c r="B115" s="108"/>
+    <row r="115" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="99"/>
+      <c r="B115" s="96"/>
       <c r="C115" s="77" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>135</v>
@@ -5147,27 +5148,27 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A116" s="111"/>
-      <c r="B116" s="108"/>
+    <row r="116" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="99"/>
+      <c r="B116" s="96"/>
       <c r="C116" s="77" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>136</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F116" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A117" s="111"/>
-      <c r="B117" s="108"/>
+    <row r="117" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="99"/>
+      <c r="B117" s="96"/>
       <c r="C117" s="77" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>191</v>
@@ -5179,75 +5180,75 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A118" s="111"/>
-      <c r="B118" s="108"/>
+    <row r="118" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="99"/>
+      <c r="B118" s="96"/>
       <c r="C118" s="77" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>190</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F118" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A119" s="111"/>
-      <c r="B119" s="108"/>
+    <row r="119" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="99"/>
+      <c r="B119" s="96"/>
       <c r="C119" s="77" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D119" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F119" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A120" s="111"/>
-      <c r="B120" s="108"/>
+    <row r="120" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="99"/>
+      <c r="B120" s="96"/>
       <c r="C120" s="77" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>194</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F120" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="55" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A121" s="111"/>
-      <c r="B121" s="108"/>
+    <row r="121" spans="1:6" s="55" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="99"/>
+      <c r="B121" s="96"/>
       <c r="C121" s="77" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D121" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F121" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A122" s="111"/>
-      <c r="B122" s="108"/>
+    <row r="122" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="99"/>
+      <c r="B122" s="96"/>
       <c r="C122" s="77" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D122" s="22" t="s">
         <v>198</v>
@@ -5259,75 +5260,75 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A123" s="111"/>
-      <c r="B123" s="108"/>
+    <row r="123" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="99"/>
+      <c r="B123" s="96"/>
       <c r="C123" s="77" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D123" s="22" t="s">
         <v>199</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F123" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A124" s="111"/>
-      <c r="B124" s="108"/>
+    <row r="124" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="99"/>
+      <c r="B124" s="96"/>
       <c r="C124" s="77" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>192</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F124" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A125" s="111"/>
-      <c r="B125" s="108"/>
+    <row r="125" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="99"/>
+      <c r="B125" s="96"/>
       <c r="C125" s="77" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D125" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F125" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A126" s="111"/>
-      <c r="B126" s="108"/>
+    <row r="126" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="99"/>
+      <c r="B126" s="96"/>
       <c r="C126" s="77" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D126" s="22" t="s">
         <v>138</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F126" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A127" s="111"/>
-      <c r="B127" s="108"/>
+    <row r="127" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="99"/>
+      <c r="B127" s="96"/>
       <c r="C127" s="77" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>200</v>
@@ -5339,75 +5340,75 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A128" s="111"/>
-      <c r="B128" s="108"/>
+    <row r="128" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="99"/>
+      <c r="B128" s="96"/>
       <c r="C128" s="77" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>201</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F128" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A129" s="111"/>
-      <c r="B129" s="108"/>
+    <row r="129" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="99"/>
+      <c r="B129" s="96"/>
       <c r="C129" s="77" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>196</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F129" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A130" s="111"/>
-      <c r="B130" s="108"/>
+    <row r="130" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="99"/>
+      <c r="B130" s="96"/>
       <c r="C130" s="77" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>197</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F130" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A131" s="111"/>
-      <c r="B131" s="108"/>
+    <row r="131" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="99"/>
+      <c r="B131" s="96"/>
       <c r="C131" s="77" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>139</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F131" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A132" s="111"/>
-      <c r="B132" s="108"/>
+    <row r="132" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="99"/>
+      <c r="B132" s="96"/>
       <c r="C132" s="77" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>202</v>
@@ -5419,523 +5420,523 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A133" s="111"/>
-      <c r="B133" s="108"/>
+    <row r="133" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="99"/>
+      <c r="B133" s="96"/>
       <c r="C133" s="77" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>203</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F133" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A134" s="111"/>
-      <c r="B134" s="108"/>
+    <row r="134" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="99"/>
+      <c r="B134" s="96"/>
       <c r="C134" s="77" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>205</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F134" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A135" s="111"/>
-      <c r="B135" s="108"/>
+    <row r="135" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="99"/>
+      <c r="B135" s="96"/>
       <c r="C135" s="77" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F135" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A136" s="111"/>
-      <c r="B136" s="108"/>
+    <row r="136" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="99"/>
+      <c r="B136" s="96"/>
       <c r="C136" s="77" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>140</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F136" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A137" s="111"/>
-      <c r="B137" s="108"/>
+    <row r="137" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="99"/>
+      <c r="B137" s="96"/>
       <c r="C137" s="77" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D137" s="22" t="s">
         <v>142</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F137" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A138" s="111"/>
-      <c r="B138" s="108"/>
+    <row r="138" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="99"/>
+      <c r="B138" s="96"/>
       <c r="C138" s="77" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D138" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F138" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A139" s="111"/>
-      <c r="B139" s="108"/>
+    <row r="139" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="99"/>
+      <c r="B139" s="96"/>
       <c r="C139" s="77" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D139" s="22" t="s">
         <v>144</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F139" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A140" s="111"/>
-      <c r="B140" s="108"/>
+    <row r="140" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="99"/>
+      <c r="B140" s="96"/>
       <c r="C140" s="77" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D140" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F140" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A141" s="111"/>
-      <c r="B141" s="108"/>
+    <row r="141" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="99"/>
+      <c r="B141" s="96"/>
       <c r="C141" s="77" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>146</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F141" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A142" s="111"/>
-      <c r="B142" s="108"/>
+    <row r="142" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="99"/>
+      <c r="B142" s="96"/>
       <c r="C142" s="77" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>148</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F142" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A143" s="111"/>
-      <c r="B143" s="108"/>
+    <row r="143" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="99"/>
+      <c r="B143" s="96"/>
       <c r="C143" s="77" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D143" s="22" t="s">
         <v>149</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F143" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A144" s="111"/>
-      <c r="B144" s="108"/>
+    <row r="144" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="99"/>
+      <c r="B144" s="96"/>
       <c r="C144" s="77" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D144" s="22" t="s">
         <v>150</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F144" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A145" s="111"/>
-      <c r="B145" s="108"/>
+    <row r="145" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="99"/>
+      <c r="B145" s="96"/>
       <c r="C145" s="77" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D145" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F145" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A146" s="111"/>
-      <c r="B146" s="108"/>
+    <row r="146" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="99"/>
+      <c r="B146" s="96"/>
       <c r="C146" s="77" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D146" s="22" t="s">
         <v>152</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F146" s="65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A147" s="111"/>
-      <c r="B147" s="108"/>
+    <row r="147" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="99"/>
+      <c r="B147" s="96"/>
       <c r="C147" s="77" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D147" s="22" t="s">
         <v>154</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F147" s="65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A148" s="111"/>
-      <c r="B148" s="108"/>
+    <row r="148" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="99"/>
+      <c r="B148" s="96"/>
       <c r="C148" s="77" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D148" s="22" t="s">
         <v>155</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F148" s="65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A149" s="111"/>
-      <c r="B149" s="108"/>
+    <row r="149" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="99"/>
+      <c r="B149" s="96"/>
       <c r="C149" s="77" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D149" s="22" t="s">
         <v>156</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F149" s="65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A150" s="111"/>
-      <c r="B150" s="108"/>
+    <row r="150" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="99"/>
+      <c r="B150" s="96"/>
       <c r="C150" s="77" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D150" s="22" t="s">
         <v>157</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F150" s="65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A151" s="111"/>
-      <c r="B151" s="108"/>
+    <row r="151" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="99"/>
+      <c r="B151" s="96"/>
       <c r="C151" s="77" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D151" s="22" t="s">
         <v>158</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F151" s="65" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A152" s="111"/>
-      <c r="B152" s="108"/>
+    <row r="152" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="99"/>
+      <c r="B152" s="96"/>
       <c r="C152" s="77" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>160</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F152" s="65" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A153" s="111"/>
-      <c r="B153" s="108"/>
+    <row r="153" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="99"/>
+      <c r="B153" s="96"/>
       <c r="C153" s="77" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F153" s="65" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A154" s="111"/>
-      <c r="B154" s="108"/>
+    <row r="154" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="99"/>
+      <c r="B154" s="96"/>
       <c r="C154" s="77" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>162</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F154" s="65" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A155" s="111"/>
-      <c r="B155" s="108"/>
+    <row r="155" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="99"/>
+      <c r="B155" s="96"/>
       <c r="C155" s="77" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D155" s="22" t="s">
         <v>163</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F155" s="65" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A156" s="111"/>
-      <c r="B156" s="108"/>
+    <row r="156" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="99"/>
+      <c r="B156" s="96"/>
       <c r="C156" s="77" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D156" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F156" s="65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A157" s="111"/>
-      <c r="B157" s="108"/>
+    <row r="157" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="99"/>
+      <c r="B157" s="96"/>
       <c r="C157" s="77" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D157" s="22" t="s">
         <v>166</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F157" s="65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A158" s="111"/>
-      <c r="B158" s="108"/>
+    <row r="158" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="99"/>
+      <c r="B158" s="96"/>
       <c r="C158" s="77" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>167</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F158" s="65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A159" s="111"/>
-      <c r="B159" s="108"/>
+    <row r="159" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="99"/>
+      <c r="B159" s="96"/>
       <c r="C159" s="77" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>168</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F159" s="65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A160" s="111"/>
-      <c r="B160" s="108"/>
+    <row r="160" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="99"/>
+      <c r="B160" s="96"/>
       <c r="C160" s="77" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>169</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F160" s="65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A161" s="111"/>
-      <c r="B161" s="108"/>
+    <row r="161" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="99"/>
+      <c r="B161" s="96"/>
       <c r="C161" s="77" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>207</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F161" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A162" s="111"/>
-      <c r="B162" s="108"/>
+    <row r="162" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="99"/>
+      <c r="B162" s="96"/>
       <c r="C162" s="77" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>206</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F162" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A163" s="111"/>
-      <c r="B163" s="108"/>
+    <row r="163" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="99"/>
+      <c r="B163" s="96"/>
       <c r="C163" s="77" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F163" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A164" s="111"/>
-      <c r="B164" s="108"/>
+    <row r="164" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="99"/>
+      <c r="B164" s="96"/>
       <c r="C164" s="77" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F164" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A165" s="111"/>
-      <c r="B165" s="108"/>
+    <row r="165" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="99"/>
+      <c r="B165" s="96"/>
       <c r="C165" s="77" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>209</v>
@@ -5948,114 +5949,114 @@
       </c>
       <c r="P165" s="56"/>
     </row>
-    <row r="166" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A166" s="111"/>
-      <c r="B166" s="108"/>
+    <row r="166" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="99"/>
+      <c r="B166" s="96"/>
       <c r="C166" s="77" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>208</v>
       </c>
       <c r="E166" s="68" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F166" s="64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A167" s="111"/>
-      <c r="B167" s="108"/>
+    <row r="167" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="99"/>
+      <c r="B167" s="96"/>
       <c r="C167" s="77" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E167" s="68" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F167" s="64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A168" s="112"/>
-      <c r="B168" s="109"/>
+    <row r="168" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="100"/>
+      <c r="B168" s="97"/>
       <c r="C168" s="77" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D168" s="41" t="s">
         <v>211</v>
       </c>
       <c r="E168" s="44" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F168" s="66" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="169" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="B169" s="88" t="s">
+      <c r="B169" s="101" t="s">
         <v>213</v>
       </c>
       <c r="C169" s="77" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D169" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E169" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F169" s="62" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="170" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="86"/>
-      <c r="B170" s="89"/>
+      <c r="B170" s="102"/>
       <c r="C170" s="77" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D170" s="59" t="s">
         <v>35</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F170" s="63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="171" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="86"/>
-      <c r="B171" s="89"/>
+      <c r="B171" s="102"/>
       <c r="C171" s="77" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D171" s="79" t="s">
-        <v>216</v>
+        <v>569</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F171" s="63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="172" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="86"/>
-      <c r="B172" s="89"/>
+      <c r="B172" s="102"/>
       <c r="C172" s="77" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D172" s="80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E172" s="67" t="s">
         <v>214</v>
@@ -6064,658 +6065,664 @@
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
+    <row r="173" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="86"/>
-      <c r="B173" s="89"/>
+      <c r="B173" s="102"/>
       <c r="C173" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="D173" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="E173" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="F173" s="63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="86"/>
+      <c r="B174" s="102"/>
+      <c r="C174" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="D174" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="E174" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F174" s="63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="86"/>
+      <c r="B175" s="102"/>
+      <c r="C175" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="D175" s="61" t="s">
+        <v>555</v>
+      </c>
+      <c r="E175" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="F175" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="86"/>
+      <c r="B176" s="102"/>
+      <c r="C176" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D176" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="F176" s="63"/>
+    </row>
+    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="86"/>
+      <c r="B177" s="102"/>
+      <c r="C177" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="E177" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="F177" s="31"/>
+    </row>
+    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="86"/>
+      <c r="B178" s="102"/>
+      <c r="C178" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E178" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="F178" s="31"/>
+    </row>
+    <row r="179" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="87"/>
+      <c r="B179" s="102"/>
+      <c r="C179" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="D179" s="84" t="s">
+        <v>545</v>
+      </c>
+      <c r="E179" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="F179" s="71"/>
+    </row>
+    <row r="180" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="91" t="s">
+        <v>457</v>
+      </c>
+      <c r="B180" s="93" t="s">
+        <v>458</v>
+      </c>
+      <c r="C180" s="77" t="s">
         <v>437</v>
       </c>
-      <c r="D173" s="60" t="s">
-        <v>561</v>
-      </c>
-      <c r="E173" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="F173" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A174" s="86"/>
-      <c r="B174" s="89"/>
-      <c r="C174" s="77" t="s">
+      <c r="D180" s="82" t="s">
+        <v>459</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F180" s="83"/>
+    </row>
+    <row r="181" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="92"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="D174" s="60" t="s">
-        <v>562</v>
-      </c>
-      <c r="E174" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="F174" s="63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A175" s="86"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="77" t="s">
+      <c r="D181" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="F181" s="45"/>
+    </row>
+    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B182" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="77" t="s">
         <v>439</v>
       </c>
-      <c r="D175" s="61" t="s">
-        <v>563</v>
-      </c>
-      <c r="E175" s="43" t="s">
-        <v>511</v>
-      </c>
-      <c r="F175" s="63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A176" s="86"/>
-      <c r="B176" s="89"/>
-      <c r="C176" s="77" t="s">
+      <c r="D182" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E182" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F182" s="76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="107"/>
+      <c r="B183" s="110"/>
+      <c r="C183" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="D176" s="59" t="s">
-        <v>565</v>
-      </c>
-      <c r="E176" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="F176" s="63"/>
-    </row>
-    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A177" s="86"/>
-      <c r="B177" s="89"/>
-      <c r="C177" s="77" t="s">
+      <c r="D183" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E183" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="107"/>
+      <c r="B184" s="110"/>
+      <c r="C184" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="D177" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E177" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="F177" s="31"/>
-    </row>
-    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A178" s="86"/>
-      <c r="B178" s="89"/>
-      <c r="C178" s="77" t="s">
+      <c r="D184" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E184" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="F184" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="107"/>
+      <c r="B185" s="110"/>
+      <c r="C185" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="D178" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="E178" s="43" t="s">
-        <v>512</v>
-      </c>
-      <c r="F178" s="31"/>
-    </row>
-    <row r="179" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A179" s="87"/>
-      <c r="B179" s="89"/>
-      <c r="C179" s="77" t="s">
+      <c r="D185" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E185" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F185" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="107"/>
+      <c r="B186" s="110"/>
+      <c r="C186" s="77" t="s">
         <v>443</v>
       </c>
-      <c r="D179" s="84" t="s">
-        <v>552</v>
-      </c>
-      <c r="E179" s="68" t="s">
-        <v>553</v>
-      </c>
-      <c r="F179" s="71"/>
-    </row>
-    <row r="180" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A180" s="103" t="s">
-        <v>464</v>
-      </c>
-      <c r="B180" s="105" t="s">
-        <v>465</v>
-      </c>
-      <c r="C180" s="77" t="s">
+      <c r="D186" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E186" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="107"/>
+      <c r="B187" s="110"/>
+      <c r="C187" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="D180" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="F180" s="83"/>
-    </row>
-    <row r="181" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A181" s="104"/>
-      <c r="B181" s="106"/>
-      <c r="C181" s="77" t="s">
+      <c r="D187" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="E187" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F187" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="107"/>
+      <c r="B188" s="110"/>
+      <c r="C188" s="77" t="s">
         <v>445</v>
       </c>
-      <c r="D181" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="F181" s="45"/>
-    </row>
-    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A182" s="96" t="s">
-        <v>225</v>
-      </c>
-      <c r="B182" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C182" s="77" t="s">
+      <c r="D188" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E188" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F188" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="107"/>
+      <c r="B189" s="110"/>
+      <c r="C189" s="77" t="s">
         <v>446</v>
       </c>
-      <c r="D182" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="E182" s="81" t="s">
+      <c r="D189" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E189" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="F189" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F182" s="76" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A183" s="97"/>
-      <c r="B183" s="100"/>
-      <c r="C183" s="77" t="s">
+    </row>
+    <row r="190" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="107"/>
+      <c r="B190" s="110"/>
+      <c r="C190" s="77" t="s">
         <v>447</v>
       </c>
-      <c r="D183" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E183" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="F183" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A184" s="97"/>
-      <c r="B184" s="100"/>
-      <c r="C184" s="77" t="s">
+      <c r="D190" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E190" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="107"/>
+      <c r="B191" s="110"/>
+      <c r="C191" s="77" t="s">
         <v>448</v>
-      </c>
-      <c r="D184" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E184" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="F184" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A185" s="97"/>
-      <c r="B185" s="100"/>
-      <c r="C185" s="77" t="s">
-        <v>449</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E185" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="F185" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A186" s="97"/>
-      <c r="B186" s="100"/>
-      <c r="C186" s="77" t="s">
-        <v>450</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E186" s="46" t="s">
-        <v>523</v>
-      </c>
-      <c r="F186" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A187" s="97"/>
-      <c r="B187" s="100"/>
-      <c r="C187" s="77" t="s">
-        <v>451</v>
-      </c>
-      <c r="D187" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="E187" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="F187" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A188" s="97"/>
-      <c r="B188" s="100"/>
-      <c r="C188" s="77" t="s">
-        <v>452</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E188" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="F188" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A189" s="97"/>
-      <c r="B189" s="100"/>
-      <c r="C189" s="77" t="s">
-        <v>453</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E189" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="F189" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A190" s="97"/>
-      <c r="B190" s="100"/>
-      <c r="C190" s="77" t="s">
-        <v>454</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E190" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="F190" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A191" s="97"/>
-      <c r="B191" s="100"/>
-      <c r="C191" s="77" t="s">
-        <v>455</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>567</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F191" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A192" s="97"/>
-      <c r="B192" s="100"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="107"/>
+      <c r="B192" s="110"/>
       <c r="C192" s="77" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D192" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E192" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="107"/>
+      <c r="B193" s="110"/>
+      <c r="C193" s="77" t="s">
+        <v>450</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E193" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="F193" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="107"/>
+      <c r="B194" s="110"/>
+      <c r="C194" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="E194" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="E192" s="46" t="s">
+      <c r="F194" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="107"/>
+      <c r="B195" s="110"/>
+      <c r="C195" s="77" t="s">
+        <v>452</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E195" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="F195" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="107"/>
+      <c r="B196" s="110"/>
+      <c r="C196" s="77" t="s">
+        <v>453</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E196" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="F196" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="107"/>
+      <c r="B197" s="110"/>
+      <c r="C197" s="77" t="s">
+        <v>454</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E197" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="F197" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="107"/>
+      <c r="B198" s="110"/>
+      <c r="C198" s="77" t="s">
+        <v>455</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E198" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="F198" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="107"/>
+      <c r="B199" s="110"/>
+      <c r="C199" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E199" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="F199" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="107"/>
+      <c r="B200" s="111"/>
+      <c r="C200" s="77" t="s">
+        <v>464</v>
+      </c>
+      <c r="D200" s="69" t="s">
+        <v>548</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F200" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="107"/>
+      <c r="B201" s="111"/>
+      <c r="C201" s="77" t="s">
+        <v>465</v>
+      </c>
+      <c r="D201" s="69" t="s">
+        <v>547</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F201" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="108"/>
+      <c r="B202" s="112"/>
+      <c r="C202" s="77" t="s">
+        <v>466</v>
+      </c>
+      <c r="D202" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E202" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="F202" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="55" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B203" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E203" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="86"/>
+      <c r="B204" s="89"/>
+      <c r="C204" s="77" t="s">
+        <v>468</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E204" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="F204" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="86"/>
+      <c r="B205" s="89"/>
+      <c r="C205" s="77" t="s">
+        <v>469</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E205" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F192" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A193" s="97"/>
-      <c r="B193" s="100"/>
-      <c r="C193" s="77" t="s">
-        <v>457</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E193" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="F193" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A194" s="97"/>
-      <c r="B194" s="100"/>
-      <c r="C194" s="77" t="s">
-        <v>458</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E194" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="F194" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A195" s="97"/>
-      <c r="B195" s="100"/>
-      <c r="C195" s="77" t="s">
-        <v>459</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="E195" s="46" t="s">
+      <c r="F205" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="86"/>
+      <c r="B206" s="89"/>
+      <c r="C206" s="77" t="s">
+        <v>470</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E206" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="F195" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A196" s="97"/>
-      <c r="B196" s="100"/>
-      <c r="C196" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="D196" s="21" t="s">
+      <c r="F206" s="51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="86"/>
+      <c r="B207" s="89"/>
+      <c r="C207" s="77" t="s">
+        <v>471</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E207" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E196" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="F196" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A197" s="97"/>
-      <c r="B197" s="100"/>
-      <c r="C197" s="77" t="s">
-        <v>461</v>
-      </c>
-      <c r="D197" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E197" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="F197" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A198" s="97"/>
-      <c r="B198" s="100"/>
-      <c r="C198" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="E198" s="46" t="s">
-        <v>569</v>
-      </c>
-      <c r="F198" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A199" s="97"/>
-      <c r="B199" s="100"/>
-      <c r="C199" s="77" t="s">
-        <v>470</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E199" s="46" t="s">
+      <c r="F207" s="52"/>
+    </row>
+    <row r="208" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="86"/>
+      <c r="B208" s="89"/>
+      <c r="C208" s="77" t="s">
+        <v>472</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E208" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F208" s="52"/>
+    </row>
+    <row r="209" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="86"/>
+      <c r="B209" s="89"/>
+      <c r="C209" s="77" t="s">
+        <v>473</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E209" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="F199" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A200" s="97"/>
-      <c r="B200" s="101"/>
-      <c r="C200" s="77" t="s">
-        <v>471</v>
-      </c>
-      <c r="D200" s="69" t="s">
-        <v>555</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="F200" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A201" s="97"/>
-      <c r="B201" s="101"/>
-      <c r="C201" s="77" t="s">
-        <v>472</v>
-      </c>
-      <c r="D201" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="F201" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A202" s="98"/>
-      <c r="B202" s="102"/>
-      <c r="C202" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="D202" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="E202" s="48" t="s">
+      <c r="F209" s="52"/>
+    </row>
+    <row r="210" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="86"/>
+      <c r="B210" s="89"/>
+      <c r="C210" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E210" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="F210" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="86"/>
+      <c r="B211" s="89"/>
+      <c r="C211" s="77" t="s">
+        <v>475</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E211" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="F202" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" s="55" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A203" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="B203" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C203" s="77" t="s">
-        <v>474</v>
-      </c>
-      <c r="D203" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E203" s="49" t="s">
-        <v>530</v>
-      </c>
-      <c r="F203" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A204" s="86"/>
-      <c r="B204" s="94"/>
-      <c r="C204" s="77" t="s">
-        <v>475</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E204" s="50" t="s">
-        <v>530</v>
-      </c>
-      <c r="F204" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A205" s="86"/>
-      <c r="B205" s="94"/>
-      <c r="C205" s="77" t="s">
+      <c r="F211" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="86"/>
+      <c r="B212" s="89"/>
+      <c r="C212" s="77" t="s">
         <v>476</v>
       </c>
-      <c r="D205" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E205" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="F205" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A206" s="86"/>
-      <c r="B206" s="94"/>
-      <c r="C206" s="77" t="s">
+      <c r="D212" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E212" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="F212" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="87"/>
+      <c r="B213" s="90"/>
+      <c r="C213" s="77" t="s">
         <v>477</v>
       </c>
-      <c r="D206" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E206" s="50" t="s">
-        <v>526</v>
-      </c>
-      <c r="F206" s="51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" s="55" customFormat="1" ht="18" thickBot="1">
-      <c r="A207" s="86"/>
-      <c r="B207" s="94"/>
-      <c r="C207" s="77" t="s">
-        <v>478</v>
-      </c>
-      <c r="D207" s="22" t="s">
+      <c r="D213" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E213" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="F213" s="54" t="s">
         <v>257</v>
-      </c>
-      <c r="E207" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="F207" s="52"/>
-    </row>
-    <row r="208" spans="1:6" s="55" customFormat="1" ht="18" thickBot="1">
-      <c r="A208" s="86"/>
-      <c r="B208" s="94"/>
-      <c r="C208" s="77" t="s">
-        <v>479</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="E208" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="F208" s="52"/>
-    </row>
-    <row r="209" spans="1:6" s="55" customFormat="1" ht="18" thickBot="1">
-      <c r="A209" s="86"/>
-      <c r="B209" s="94"/>
-      <c r="C209" s="77" t="s">
-        <v>480</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E209" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="F209" s="52"/>
-    </row>
-    <row r="210" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A210" s="86"/>
-      <c r="B210" s="94"/>
-      <c r="C210" s="77" t="s">
-        <v>481</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E210" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="F210" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A211" s="86"/>
-      <c r="B211" s="94"/>
-      <c r="C211" s="77" t="s">
-        <v>482</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E211" s="50" t="s">
-        <v>528</v>
-      </c>
-      <c r="F211" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A212" s="86"/>
-      <c r="B212" s="94"/>
-      <c r="C212" s="77" t="s">
-        <v>483</v>
-      </c>
-      <c r="D212" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E212" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="F212" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A213" s="87"/>
-      <c r="B213" s="95"/>
-      <c r="C213" s="77" t="s">
-        <v>484</v>
-      </c>
-      <c r="D213" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E213" s="53" t="s">
-        <v>529</v>
-      </c>
-      <c r="F213" s="54" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="A182:A202"/>
+    <mergeCell ref="B182:B202"/>
+    <mergeCell ref="A15:A76"/>
+    <mergeCell ref="B15:B76"/>
     <mergeCell ref="A203:A213"/>
     <mergeCell ref="B203:B213"/>
     <mergeCell ref="A180:A181"/>
@@ -6724,148 +6731,142 @@
     <mergeCell ref="A77:A168"/>
     <mergeCell ref="A169:A179"/>
     <mergeCell ref="B169:B179"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="A182:A202"/>
-    <mergeCell ref="B182:B202"/>
-    <mergeCell ref="A15:A76"/>
-    <mergeCell ref="B15:B76"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F9" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6"/>
-    <hyperlink ref="F12" r:id="rId7"/>
-    <hyperlink ref="F13" r:id="rId8" display="https://drive.google.com/file/d/1p6nSav4LLvKOEYg9ljD2kQvm8EHJgRmj/view?usp=drive_link"/>
-    <hyperlink ref="F4" r:id="rId9"/>
-    <hyperlink ref="F7" r:id="rId10"/>
-    <hyperlink ref="F8" r:id="rId11"/>
-    <hyperlink ref="F72" r:id="rId12"/>
-    <hyperlink ref="F74" r:id="rId13"/>
-    <hyperlink ref="F76" r:id="rId14"/>
-    <hyperlink ref="F66" r:id="rId15"/>
-    <hyperlink ref="F68" r:id="rId16"/>
-    <hyperlink ref="F70" r:id="rId17"/>
-    <hyperlink ref="F56" r:id="rId18"/>
-    <hyperlink ref="F54" r:id="rId19"/>
-    <hyperlink ref="F33" r:id="rId20"/>
-    <hyperlink ref="F38" r:id="rId21"/>
-    <hyperlink ref="F39" r:id="rId22"/>
-    <hyperlink ref="F40" r:id="rId23"/>
-    <hyperlink ref="F41" r:id="rId24"/>
-    <hyperlink ref="F43" r:id="rId25"/>
-    <hyperlink ref="F19" r:id="rId26"/>
-    <hyperlink ref="F20" r:id="rId27"/>
-    <hyperlink ref="F21" r:id="rId28"/>
-    <hyperlink ref="F22" r:id="rId29"/>
-    <hyperlink ref="F27" r:id="rId30"/>
-    <hyperlink ref="F28" r:id="rId31"/>
-    <hyperlink ref="F29" r:id="rId32"/>
-    <hyperlink ref="F30" r:id="rId33"/>
-    <hyperlink ref="F58" r:id="rId34"/>
-    <hyperlink ref="F60" r:id="rId35"/>
-    <hyperlink ref="F62" r:id="rId36"/>
-    <hyperlink ref="F64" r:id="rId37"/>
-    <hyperlink ref="F45" r:id="rId38"/>
-    <hyperlink ref="F47" r:id="rId39"/>
-    <hyperlink ref="F50" r:id="rId40"/>
-    <hyperlink ref="F52" r:id="rId41"/>
-    <hyperlink ref="F15:F18" r:id="rId42" display="https://drive.google.com/file/d/1lg1lYS3BLtUx2KDJEk7rXwVz5UuFfsqD/view?usp=sharing"/>
-    <hyperlink ref="F16" r:id="rId43"/>
-    <hyperlink ref="F17" r:id="rId44"/>
-    <hyperlink ref="F18" r:id="rId45"/>
-    <hyperlink ref="F23" r:id="rId46"/>
-    <hyperlink ref="F24" r:id="rId47"/>
-    <hyperlink ref="F25" r:id="rId48"/>
-    <hyperlink ref="F26" r:id="rId49"/>
-    <hyperlink ref="F31" r:id="rId50"/>
-    <hyperlink ref="F32" r:id="rId51"/>
-    <hyperlink ref="F34" r:id="rId52"/>
-    <hyperlink ref="F35" r:id="rId53"/>
-    <hyperlink ref="F36" r:id="rId54"/>
-    <hyperlink ref="F37" r:id="rId55"/>
-    <hyperlink ref="F42" r:id="rId56"/>
-    <hyperlink ref="F44" r:id="rId57"/>
-    <hyperlink ref="F46" r:id="rId58"/>
-    <hyperlink ref="F48" r:id="rId59"/>
-    <hyperlink ref="F49" r:id="rId60"/>
-    <hyperlink ref="F51" r:id="rId61"/>
-    <hyperlink ref="F53" r:id="rId62"/>
-    <hyperlink ref="F55" r:id="rId63"/>
-    <hyperlink ref="F57" r:id="rId64"/>
-    <hyperlink ref="F59" r:id="rId65"/>
-    <hyperlink ref="F61" r:id="rId66"/>
-    <hyperlink ref="F63" r:id="rId67"/>
-    <hyperlink ref="F65" r:id="rId68"/>
-    <hyperlink ref="F67" r:id="rId69"/>
-    <hyperlink ref="F69" r:id="rId70"/>
-    <hyperlink ref="F71" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F75" r:id="rId73"/>
-    <hyperlink ref="F81" r:id="rId74"/>
-    <hyperlink ref="F77" r:id="rId75"/>
-    <hyperlink ref="F85" r:id="rId76"/>
-    <hyperlink ref="F93" r:id="rId77"/>
-    <hyperlink ref="F101" r:id="rId78"/>
-    <hyperlink ref="F110" r:id="rId79"/>
-    <hyperlink ref="F161" r:id="rId80"/>
-    <hyperlink ref="F89" r:id="rId81"/>
-    <hyperlink ref="F97" r:id="rId82"/>
-    <hyperlink ref="F105" r:id="rId83"/>
-    <hyperlink ref="F141" r:id="rId84"/>
-    <hyperlink ref="F146" r:id="rId85"/>
-    <hyperlink ref="F151" r:id="rId86"/>
-    <hyperlink ref="F156" r:id="rId87"/>
-    <hyperlink ref="F165" r:id="rId88"/>
-    <hyperlink ref="F78:F80" r:id="rId89" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view"/>
-    <hyperlink ref="F82:F84" r:id="rId90" display="https://drive.google.com/file/d/1CWpjKRp5i0wEhfUtOxa6q68KGZO5uODv/view"/>
-    <hyperlink ref="F86:F88" r:id="rId91" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view"/>
-    <hyperlink ref="F90:F92" r:id="rId92" display="https://drive.google.com/file/d/1uqlpnVapcZiAwENIufO-zCz44DR8yLi6/view"/>
-    <hyperlink ref="F94:F96" r:id="rId93" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view"/>
-    <hyperlink ref="F98:F100" r:id="rId94" display="https://drive.google.com/file/d/1mpr_BT0vPsTa9HlzPC8RUDvSBogP3exf/view"/>
-    <hyperlink ref="F102:F104" r:id="rId95" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view"/>
-    <hyperlink ref="F106:F109" r:id="rId96" display="https://drive.google.com/file/d/1DHmVc6JqNZq7Nkxfv5kt9gNLAb33VdRk/view"/>
-    <hyperlink ref="F111:F135" r:id="rId97" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view"/>
-    <hyperlink ref="F142:F145" r:id="rId98" display="https://drive.google.com/file/d/17mYvybFzXSVfbyRoatOMzj_eNCTrUVLb/view"/>
-    <hyperlink ref="F147:F150" r:id="rId99" display="https://drive.google.com/file/d/1v3TKbb6sVoyIPqKDthI9Bu4B1GmRH3Db/view"/>
-    <hyperlink ref="F152:F155" r:id="rId100" display="https://drive.google.com/file/d/1vOVNfw3mcAtP5U9rW465ffDpdjDqH57B/view"/>
-    <hyperlink ref="F157:F160" r:id="rId101" display="https://drive.google.com/file/d/1Jy_e9Jo4LOYjeRyiDh5a9GGP4-lK-60G/view"/>
-    <hyperlink ref="F162:F164" r:id="rId102" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view"/>
-    <hyperlink ref="F166:F168" r:id="rId103" display="https://drive.google.com/file/d/1NTtIdWMrKSuJ8n3va-A1UJ25cmjYe8XC/view"/>
-    <hyperlink ref="F174" r:id="rId104"/>
-    <hyperlink ref="F182" r:id="rId105"/>
-    <hyperlink ref="F183" r:id="rId106"/>
-    <hyperlink ref="F184" r:id="rId107"/>
-    <hyperlink ref="F185" r:id="rId108"/>
-    <hyperlink ref="F186" r:id="rId109"/>
-    <hyperlink ref="F188" r:id="rId110"/>
-    <hyperlink ref="F189" r:id="rId111"/>
-    <hyperlink ref="F193" r:id="rId112"/>
-    <hyperlink ref="F194" r:id="rId113"/>
-    <hyperlink ref="F198" r:id="rId114"/>
-    <hyperlink ref="F199" r:id="rId115"/>
-    <hyperlink ref="F202" r:id="rId116"/>
-    <hyperlink ref="F197" r:id="rId117"/>
-    <hyperlink ref="F196" r:id="rId118"/>
-    <hyperlink ref="F195" r:id="rId119"/>
-    <hyperlink ref="F192" r:id="rId120"/>
-    <hyperlink ref="F190" r:id="rId121"/>
-    <hyperlink ref="F203" r:id="rId122"/>
-    <hyperlink ref="F206" r:id="rId123"/>
-    <hyperlink ref="F210" r:id="rId124"/>
-    <hyperlink ref="F212" r:id="rId125"/>
-    <hyperlink ref="F204" r:id="rId126"/>
-    <hyperlink ref="F205" r:id="rId127"/>
-    <hyperlink ref="F211" r:id="rId128"/>
-    <hyperlink ref="F213" r:id="rId129"/>
-    <hyperlink ref="F187" r:id="rId130"/>
-    <hyperlink ref="F200" r:id="rId131"/>
-    <hyperlink ref="F201" r:id="rId132"/>
-    <hyperlink ref="F191" r:id="rId133"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F13" r:id="rId8" display="https://drive.google.com/file/d/1p6nSav4LLvKOEYg9ljD2kQvm8EHJgRmj/view?usp=drive_link" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F72" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F74" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F76" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F66" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F68" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F70" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F56" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F54" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F38" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F43" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F29" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F30" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F58" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F60" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F62" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F15:F18" r:id="rId42" display="https://drive.google.com/file/d/1lg1lYS3BLtUx2KDJEk7rXwVz5UuFfsqD/view?usp=sharing" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F16" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F17" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F24" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F31" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F32" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F34" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F35" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F44" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F46" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F48" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F49" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F51" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F53" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F55" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F57" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F59" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F61" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F63" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F65" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F67" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F69" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F81" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F93" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F110" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F161" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F89" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F97" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F141" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F146" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F151" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F156" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F165" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F78:F80" r:id="rId89" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F82:F84" r:id="rId90" display="https://drive.google.com/file/d/1CWpjKRp5i0wEhfUtOxa6q68KGZO5uODv/view" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F86:F88" r:id="rId91" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F90:F92" r:id="rId92" display="https://drive.google.com/file/d/1uqlpnVapcZiAwENIufO-zCz44DR8yLi6/view" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F94:F96" r:id="rId93" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F98:F100" r:id="rId94" display="https://drive.google.com/file/d/1mpr_BT0vPsTa9HlzPC8RUDvSBogP3exf/view" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F102:F104" r:id="rId95" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F106:F109" r:id="rId96" display="https://drive.google.com/file/d/1DHmVc6JqNZq7Nkxfv5kt9gNLAb33VdRk/view" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F111:F135" r:id="rId97" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F142:F145" r:id="rId98" display="https://drive.google.com/file/d/17mYvybFzXSVfbyRoatOMzj_eNCTrUVLb/view" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F147:F150" r:id="rId99" display="https://drive.google.com/file/d/1v3TKbb6sVoyIPqKDthI9Bu4B1GmRH3Db/view" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F152:F155" r:id="rId100" display="https://drive.google.com/file/d/1vOVNfw3mcAtP5U9rW465ffDpdjDqH57B/view" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F157:F160" r:id="rId101" display="https://drive.google.com/file/d/1Jy_e9Jo4LOYjeRyiDh5a9GGP4-lK-60G/view" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F162:F164" r:id="rId102" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F166:F168" r:id="rId103" display="https://drive.google.com/file/d/1NTtIdWMrKSuJ8n3va-A1UJ25cmjYe8XC/view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F174" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F182" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F183" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F184" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F185" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F186" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F188" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F189" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F193" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F194" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F198" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F199" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F202" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F197" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F196" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F195" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F192" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F190" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F203" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F206" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F210" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F212" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F204" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F205" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F211" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F213" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F187" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F200" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F201" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F191" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId134"/>

--- a/Requirments/SRS/SRS.xlsx
+++ b/Requirments/SRS/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271F4B8C-D8DC-4759-91C4-878084FB112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA8FDF-9624-4C99-91A0-4D97F1AEBCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,9 +716,6 @@
     <t>https://drive.google.com/file/d/1eqCOsbAle7VeGh-s_a6h8JmamFc6hj0J/view?usp=sharing</t>
   </si>
   <si>
-    <t>Car name field shall accept only alphabetic characters, and allow spaces</t>
-  </si>
-  <si>
     <t>Car name search shall be case-insensitive</t>
   </si>
   <si>
@@ -728,9 +725,6 @@
     <t>Search_002</t>
   </si>
   <si>
-    <t>Manufacturing Year input shall be numeric only, and in the range 1900–current year</t>
-  </si>
-  <si>
     <t>User shall find the option to search by Price (Optional)</t>
   </si>
   <si>
@@ -1737,6 +1731,12 @@
   </si>
   <si>
     <t xml:space="preserve">Search button shall be clicked after entering an email </t>
+  </si>
+  <si>
+    <t>Car Name must accept only alphabetic characters, numeric characters, and spaces.</t>
+  </si>
+  <si>
+    <t>Manufacturing Year input shall be numeric only.</t>
   </si>
 </sst>
 </file>
@@ -2667,6 +2667,60 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2676,15 +2730,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2720,51 +2765,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3315,7 +3315,7 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="85" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -3335,10 +3335,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="104"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="89"/>
       <c r="C3" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>92</v>
@@ -3351,10 +3351,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="89"/>
       <c r="C4" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>95</v>
@@ -3367,10 +3367,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="104"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="89"/>
       <c r="C5" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>94</v>
@@ -3383,10 +3383,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="104"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="89"/>
       <c r="C6" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>93</v>
@@ -3399,10 +3399,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="104"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="89"/>
       <c r="C7" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>97</v>
@@ -3415,10 +3415,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="104"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="89"/>
       <c r="C8" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>98</v>
@@ -3431,10 +3431,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="89"/>
       <c r="C9" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>99</v>
@@ -3447,10 +3447,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="89"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>100</v>
@@ -3463,10 +3463,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="104"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="89"/>
       <c r="C11" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>96</v>
@@ -3479,26 +3479,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="104"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="89"/>
       <c r="C12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="104"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="89"/>
       <c r="C13" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>103</v>
@@ -3511,28 +3511,28 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="105"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="90"/>
       <c r="C14" s="77" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:8" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="100" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>16</v>
@@ -3545,26 +3545,26 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="77" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>19</v>
@@ -3577,10 +3577,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="77" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>20</v>
@@ -3593,26 +3593,26 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="77" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="77" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>23</v>
@@ -3625,10 +3625,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>24</v>
@@ -3641,10 +3641,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="77" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>25</v>
@@ -3657,10 +3657,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="113"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>26</v>
@@ -3673,26 +3673,26 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="113"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="77" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="77" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>28</v>
@@ -3705,10 +3705,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="77" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>29</v>
@@ -3721,26 +3721,26 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="77" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
-      <c r="B28" s="116"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>32</v>
@@ -3753,10 +3753,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>33</v>
@@ -3769,10 +3769,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="113"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="77" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>34</v>
@@ -3785,10 +3785,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="113"/>
-      <c r="B31" s="116"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>35</v>
@@ -3801,13 +3801,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>7</v>
@@ -3817,10 +3817,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>36</v>
@@ -3833,26 +3833,26 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="113"/>
-      <c r="B34" s="116"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="77" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>39</v>
@@ -3865,10 +3865,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="77" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>40</v>
@@ -3881,10 +3881,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="77" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>41</v>
@@ -3897,10 +3897,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="113"/>
-      <c r="B38" s="116"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>42</v>
@@ -3913,26 +3913,26 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="113"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="113"/>
-      <c r="B40" s="116"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="77" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>44</v>
@@ -3945,10 +3945,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="113"/>
-      <c r="B41" s="116"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="101"/>
       <c r="C41" s="77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>45</v>
@@ -3961,42 +3961,42 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="113"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="113"/>
-      <c r="B43" s="116"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="113"/>
-      <c r="B44" s="116"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>49</v>
@@ -4009,10 +4009,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="113"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="77" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>50</v>
@@ -4025,42 +4025,42 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="113"/>
-      <c r="B46" s="116"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="77" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="113"/>
-      <c r="B47" s="116"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="113"/>
-      <c r="B48" s="116"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>54</v>
@@ -4073,74 +4073,74 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="113"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="77" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="113"/>
-      <c r="B50" s="116"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="113"/>
-      <c r="B51" s="116"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="113"/>
-      <c r="B52" s="116"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="77" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="113"/>
-      <c r="B53" s="116"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="77" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>57</v>
@@ -4153,10 +4153,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="55" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="113"/>
-      <c r="B54" s="116"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="77" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>58</v>
@@ -4169,45 +4169,45 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="113"/>
-      <c r="B55" s="116"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="101"/>
       <c r="C55" s="77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="113"/>
-      <c r="B56" s="116"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="113"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="101"/>
       <c r="C57" s="77" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>10</v>
@@ -4217,13 +4217,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="113"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="101"/>
       <c r="C58" s="77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>10</v>
@@ -4233,109 +4233,109 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="113"/>
-      <c r="B59" s="116"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="101"/>
       <c r="C59" s="77" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F59" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="113"/>
-      <c r="B60" s="116"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="113"/>
-      <c r="B61" s="116"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="77" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="113"/>
-      <c r="B62" s="116"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="101"/>
       <c r="C62" s="77" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F62" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="113"/>
-      <c r="B63" s="116"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="101"/>
       <c r="C63" s="77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="113"/>
-      <c r="B64" s="116"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="77" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="113"/>
-      <c r="B65" s="116"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="77" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>11</v>
@@ -4345,13 +4345,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="113"/>
-      <c r="B66" s="116"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="101"/>
       <c r="C66" s="77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>11</v>
@@ -4361,42 +4361,42 @@
       </c>
     </row>
     <row r="67" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="113"/>
-      <c r="B67" s="116"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="77" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="113"/>
-      <c r="B68" s="116"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="113"/>
-      <c r="B69" s="116"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="101"/>
       <c r="C69" s="77" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>72</v>
@@ -4409,10 +4409,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="113"/>
-      <c r="B70" s="116"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="101"/>
       <c r="C70" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>73</v>
@@ -4425,10 +4425,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="113"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="101"/>
       <c r="C71" s="77" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>74</v>
@@ -4441,110 +4441,110 @@
       </c>
     </row>
     <row r="72" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="113"/>
-      <c r="B72" s="116"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="101"/>
       <c r="C72" s="77" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="113"/>
-      <c r="B73" s="116"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="113"/>
-      <c r="B74" s="116"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="77" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="113"/>
-      <c r="B75" s="116"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="101"/>
       <c r="C75" s="77" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="114"/>
-      <c r="B76" s="117"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="102"/>
       <c r="C76" s="77" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F76" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="98" t="s">
+      <c r="A77" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="95" t="s">
+      <c r="B77" s="110" t="s">
         <v>172</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F77" s="62" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="99"/>
-      <c r="B78" s="96"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="111"/>
       <c r="C78" s="77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>173</v>
@@ -4557,106 +4557,106 @@
       </c>
     </row>
     <row r="79" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="99"/>
-      <c r="B79" s="96"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>174</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F79" s="63" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="99"/>
-      <c r="B80" s="96"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="77" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>175</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F80" s="63" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="99"/>
-      <c r="B81" s="96"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="77" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>176</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F81" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="99"/>
-      <c r="B82" s="96"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="111"/>
       <c r="C82" s="77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>177</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F82" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="99"/>
-      <c r="B83" s="96"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="111"/>
       <c r="C83" s="77" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>178</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F83" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="99"/>
-      <c r="B84" s="96"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="111"/>
       <c r="C84" s="77" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>179</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F84" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="99"/>
-      <c r="B85" s="96"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="111"/>
       <c r="C85" s="77" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>180</v>
@@ -4669,170 +4669,170 @@
       </c>
     </row>
     <row r="86" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="99"/>
-      <c r="B86" s="96"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="111"/>
       <c r="C86" s="77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F86" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="99"/>
-      <c r="B87" s="96"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="111"/>
       <c r="C87" s="77" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>182</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F87" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="99"/>
-      <c r="B88" s="96"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="111"/>
       <c r="C88" s="77" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>183</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F88" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="99"/>
-      <c r="B89" s="96"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="111"/>
       <c r="C89" s="77" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F89" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="99"/>
-      <c r="B90" s="96"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="111"/>
       <c r="C90" s="77" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F90" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="99"/>
-      <c r="B91" s="96"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="111"/>
       <c r="C91" s="77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F91" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="99"/>
-      <c r="B92" s="96"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="111"/>
       <c r="C92" s="77" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F92" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="99"/>
-      <c r="B93" s="96"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="111"/>
       <c r="C93" s="77" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F93" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="99"/>
-      <c r="B94" s="96"/>
+      <c r="A94" s="114"/>
+      <c r="B94" s="111"/>
       <c r="C94" s="77" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F94" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="99"/>
-      <c r="B95" s="96"/>
+      <c r="A95" s="114"/>
+      <c r="B95" s="111"/>
       <c r="C95" s="77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F95" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="99"/>
-      <c r="B96" s="96"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="111"/>
       <c r="C96" s="77" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>119</v>
@@ -4845,106 +4845,106 @@
       </c>
     </row>
     <row r="97" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="99"/>
-      <c r="B97" s="96"/>
+      <c r="A97" s="114"/>
+      <c r="B97" s="111"/>
       <c r="C97" s="77" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F97" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="99"/>
-      <c r="B98" s="96"/>
+      <c r="A98" s="114"/>
+      <c r="B98" s="111"/>
       <c r="C98" s="77" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F98" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="99"/>
-      <c r="B99" s="96"/>
+      <c r="A99" s="114"/>
+      <c r="B99" s="111"/>
       <c r="C99" s="77" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>123</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F99" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="99"/>
-      <c r="B100" s="96"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="77" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>124</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F100" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="99"/>
-      <c r="B101" s="96"/>
+      <c r="A101" s="114"/>
+      <c r="B101" s="111"/>
       <c r="C101" s="77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F101" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="99"/>
-      <c r="B102" s="96"/>
+      <c r="A102" s="114"/>
+      <c r="B102" s="111"/>
       <c r="C102" s="77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>186</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F102" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="99"/>
-      <c r="B103" s="96"/>
+      <c r="A103" s="114"/>
+      <c r="B103" s="111"/>
       <c r="C103" s="77" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>185</v>
@@ -4957,186 +4957,186 @@
       </c>
     </row>
     <row r="104" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="99"/>
-      <c r="B104" s="96"/>
+      <c r="A104" s="114"/>
+      <c r="B104" s="111"/>
       <c r="C104" s="77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D104" s="22" t="s">
         <v>184</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F104" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="99"/>
-      <c r="B105" s="96"/>
+      <c r="A105" s="114"/>
+      <c r="B105" s="111"/>
       <c r="C105" s="77" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>126</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F105" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="99"/>
-      <c r="B106" s="96"/>
+      <c r="A106" s="114"/>
+      <c r="B106" s="111"/>
       <c r="C106" s="77" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>187</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F106" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="99"/>
-      <c r="B107" s="96"/>
+      <c r="A107" s="114"/>
+      <c r="B107" s="111"/>
       <c r="C107" s="77" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>188</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F107" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="99"/>
-      <c r="B108" s="96"/>
+      <c r="A108" s="114"/>
+      <c r="B108" s="111"/>
       <c r="C108" s="77" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D108" s="22" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F108" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="99"/>
-      <c r="B109" s="96"/>
+      <c r="A109" s="114"/>
+      <c r="B109" s="111"/>
       <c r="C109" s="77" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F109" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="99"/>
-      <c r="B110" s="96"/>
+      <c r="A110" s="114"/>
+      <c r="B110" s="111"/>
       <c r="C110" s="77" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>131</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F110" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="99"/>
-      <c r="B111" s="96"/>
+      <c r="A111" s="114"/>
+      <c r="B111" s="111"/>
       <c r="C111" s="77" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F111" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="99"/>
-      <c r="B112" s="96"/>
+      <c r="A112" s="114"/>
+      <c r="B112" s="111"/>
       <c r="C112" s="77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>133</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F112" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="99"/>
-      <c r="B113" s="96"/>
+      <c r="A113" s="114"/>
+      <c r="B113" s="111"/>
       <c r="C113" s="77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F113" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="99"/>
-      <c r="B114" s="96"/>
+      <c r="A114" s="114"/>
+      <c r="B114" s="111"/>
       <c r="C114" s="77" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F114" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="99"/>
-      <c r="B115" s="96"/>
+      <c r="A115" s="114"/>
+      <c r="B115" s="111"/>
       <c r="C115" s="77" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>135</v>
@@ -5149,26 +5149,26 @@
       </c>
     </row>
     <row r="116" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="99"/>
-      <c r="B116" s="96"/>
+      <c r="A116" s="114"/>
+      <c r="B116" s="111"/>
       <c r="C116" s="77" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>136</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F116" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="99"/>
-      <c r="B117" s="96"/>
+      <c r="A117" s="114"/>
+      <c r="B117" s="111"/>
       <c r="C117" s="77" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>191</v>
@@ -5181,74 +5181,74 @@
       </c>
     </row>
     <row r="118" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="99"/>
-      <c r="B118" s="96"/>
+      <c r="A118" s="114"/>
+      <c r="B118" s="111"/>
       <c r="C118" s="77" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>190</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F118" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="99"/>
-      <c r="B119" s="96"/>
+      <c r="A119" s="114"/>
+      <c r="B119" s="111"/>
       <c r="C119" s="77" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D119" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F119" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="99"/>
-      <c r="B120" s="96"/>
+      <c r="A120" s="114"/>
+      <c r="B120" s="111"/>
       <c r="C120" s="77" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>194</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F120" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="55" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="99"/>
-      <c r="B121" s="96"/>
+      <c r="A121" s="114"/>
+      <c r="B121" s="111"/>
       <c r="C121" s="77" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D121" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F121" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="99"/>
-      <c r="B122" s="96"/>
+      <c r="A122" s="114"/>
+      <c r="B122" s="111"/>
       <c r="C122" s="77" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D122" s="22" t="s">
         <v>198</v>
@@ -5261,74 +5261,74 @@
       </c>
     </row>
     <row r="123" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="99"/>
-      <c r="B123" s="96"/>
+      <c r="A123" s="114"/>
+      <c r="B123" s="111"/>
       <c r="C123" s="77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D123" s="22" t="s">
         <v>199</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F123" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="99"/>
-      <c r="B124" s="96"/>
+      <c r="A124" s="114"/>
+      <c r="B124" s="111"/>
       <c r="C124" s="77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>192</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F124" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="99"/>
-      <c r="B125" s="96"/>
+      <c r="A125" s="114"/>
+      <c r="B125" s="111"/>
       <c r="C125" s="77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D125" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F125" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="99"/>
-      <c r="B126" s="96"/>
+      <c r="A126" s="114"/>
+      <c r="B126" s="111"/>
       <c r="C126" s="77" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D126" s="22" t="s">
         <v>138</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F126" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="99"/>
-      <c r="B127" s="96"/>
+      <c r="A127" s="114"/>
+      <c r="B127" s="111"/>
       <c r="C127" s="77" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>200</v>
@@ -5341,74 +5341,74 @@
       </c>
     </row>
     <row r="128" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="99"/>
-      <c r="B128" s="96"/>
+      <c r="A128" s="114"/>
+      <c r="B128" s="111"/>
       <c r="C128" s="77" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>201</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F128" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="99"/>
-      <c r="B129" s="96"/>
+      <c r="A129" s="114"/>
+      <c r="B129" s="111"/>
       <c r="C129" s="77" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>196</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F129" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="99"/>
-      <c r="B130" s="96"/>
+      <c r="A130" s="114"/>
+      <c r="B130" s="111"/>
       <c r="C130" s="77" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>197</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F130" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="99"/>
-      <c r="B131" s="96"/>
+      <c r="A131" s="114"/>
+      <c r="B131" s="111"/>
       <c r="C131" s="77" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>139</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F131" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="99"/>
-      <c r="B132" s="96"/>
+      <c r="A132" s="114"/>
+      <c r="B132" s="111"/>
       <c r="C132" s="77" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>202</v>
@@ -5421,522 +5421,522 @@
       </c>
     </row>
     <row r="133" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="99"/>
-      <c r="B133" s="96"/>
+      <c r="A133" s="114"/>
+      <c r="B133" s="111"/>
       <c r="C133" s="77" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>203</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F133" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="99"/>
-      <c r="B134" s="96"/>
+      <c r="A134" s="114"/>
+      <c r="B134" s="111"/>
       <c r="C134" s="77" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>205</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F134" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="99"/>
-      <c r="B135" s="96"/>
+      <c r="A135" s="114"/>
+      <c r="B135" s="111"/>
       <c r="C135" s="77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F135" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="99"/>
-      <c r="B136" s="96"/>
+      <c r="A136" s="114"/>
+      <c r="B136" s="111"/>
       <c r="C136" s="77" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>140</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F136" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="99"/>
-      <c r="B137" s="96"/>
+      <c r="A137" s="114"/>
+      <c r="B137" s="111"/>
       <c r="C137" s="77" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D137" s="22" t="s">
         <v>142</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F137" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="99"/>
-      <c r="B138" s="96"/>
+      <c r="A138" s="114"/>
+      <c r="B138" s="111"/>
       <c r="C138" s="77" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D138" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F138" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="99"/>
-      <c r="B139" s="96"/>
+      <c r="A139" s="114"/>
+      <c r="B139" s="111"/>
       <c r="C139" s="77" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D139" s="22" t="s">
         <v>144</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F139" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="99"/>
-      <c r="B140" s="96"/>
+      <c r="A140" s="114"/>
+      <c r="B140" s="111"/>
       <c r="C140" s="77" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D140" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F140" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="99"/>
-      <c r="B141" s="96"/>
+      <c r="A141" s="114"/>
+      <c r="B141" s="111"/>
       <c r="C141" s="77" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>146</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F141" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="99"/>
-      <c r="B142" s="96"/>
+      <c r="A142" s="114"/>
+      <c r="B142" s="111"/>
       <c r="C142" s="77" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>148</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F142" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="99"/>
-      <c r="B143" s="96"/>
+      <c r="A143" s="114"/>
+      <c r="B143" s="111"/>
       <c r="C143" s="77" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D143" s="22" t="s">
         <v>149</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F143" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="99"/>
-      <c r="B144" s="96"/>
+      <c r="A144" s="114"/>
+      <c r="B144" s="111"/>
       <c r="C144" s="77" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D144" s="22" t="s">
         <v>150</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F144" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="99"/>
-      <c r="B145" s="96"/>
+      <c r="A145" s="114"/>
+      <c r="B145" s="111"/>
       <c r="C145" s="77" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D145" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F145" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="99"/>
-      <c r="B146" s="96"/>
+      <c r="A146" s="114"/>
+      <c r="B146" s="111"/>
       <c r="C146" s="77" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D146" s="22" t="s">
         <v>152</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F146" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="99"/>
-      <c r="B147" s="96"/>
+      <c r="A147" s="114"/>
+      <c r="B147" s="111"/>
       <c r="C147" s="77" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D147" s="22" t="s">
         <v>154</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F147" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="99"/>
-      <c r="B148" s="96"/>
+      <c r="A148" s="114"/>
+      <c r="B148" s="111"/>
       <c r="C148" s="77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D148" s="22" t="s">
         <v>155</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F148" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="99"/>
-      <c r="B149" s="96"/>
+      <c r="A149" s="114"/>
+      <c r="B149" s="111"/>
       <c r="C149" s="77" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D149" s="22" t="s">
         <v>156</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F149" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="99"/>
-      <c r="B150" s="96"/>
+      <c r="A150" s="114"/>
+      <c r="B150" s="111"/>
       <c r="C150" s="77" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D150" s="22" t="s">
         <v>157</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F150" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="99"/>
-      <c r="B151" s="96"/>
+      <c r="A151" s="114"/>
+      <c r="B151" s="111"/>
       <c r="C151" s="77" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D151" s="22" t="s">
         <v>158</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F151" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="99"/>
-      <c r="B152" s="96"/>
+      <c r="A152" s="114"/>
+      <c r="B152" s="111"/>
       <c r="C152" s="77" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>160</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F152" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="99"/>
-      <c r="B153" s="96"/>
+      <c r="A153" s="114"/>
+      <c r="B153" s="111"/>
       <c r="C153" s="77" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F153" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="99"/>
-      <c r="B154" s="96"/>
+      <c r="A154" s="114"/>
+      <c r="B154" s="111"/>
       <c r="C154" s="77" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>162</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F154" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="99"/>
-      <c r="B155" s="96"/>
+      <c r="A155" s="114"/>
+      <c r="B155" s="111"/>
       <c r="C155" s="77" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D155" s="22" t="s">
         <v>163</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F155" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="99"/>
-      <c r="B156" s="96"/>
+      <c r="A156" s="114"/>
+      <c r="B156" s="111"/>
       <c r="C156" s="77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D156" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F156" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="99"/>
-      <c r="B157" s="96"/>
+      <c r="A157" s="114"/>
+      <c r="B157" s="111"/>
       <c r="C157" s="77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D157" s="22" t="s">
         <v>166</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F157" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="99"/>
-      <c r="B158" s="96"/>
+      <c r="A158" s="114"/>
+      <c r="B158" s="111"/>
       <c r="C158" s="77" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>167</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F158" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="99"/>
-      <c r="B159" s="96"/>
+      <c r="A159" s="114"/>
+      <c r="B159" s="111"/>
       <c r="C159" s="77" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>168</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F159" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="99"/>
-      <c r="B160" s="96"/>
+      <c r="A160" s="114"/>
+      <c r="B160" s="111"/>
       <c r="C160" s="77" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>169</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F160" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="99"/>
-      <c r="B161" s="96"/>
+      <c r="A161" s="114"/>
+      <c r="B161" s="111"/>
       <c r="C161" s="77" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>207</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F161" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="99"/>
-      <c r="B162" s="96"/>
+      <c r="A162" s="114"/>
+      <c r="B162" s="111"/>
       <c r="C162" s="77" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>206</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F162" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="99"/>
-      <c r="B163" s="96"/>
+      <c r="A163" s="114"/>
+      <c r="B163" s="111"/>
       <c r="C163" s="77" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F163" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="99"/>
-      <c r="B164" s="96"/>
+      <c r="A164" s="114"/>
+      <c r="B164" s="111"/>
       <c r="C164" s="77" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F164" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="99"/>
-      <c r="B165" s="96"/>
+      <c r="A165" s="114"/>
+      <c r="B165" s="111"/>
       <c r="C165" s="77" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>209</v>
@@ -5950,62 +5950,62 @@
       <c r="P165" s="56"/>
     </row>
     <row r="166" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="99"/>
-      <c r="B166" s="96"/>
+      <c r="A166" s="114"/>
+      <c r="B166" s="111"/>
       <c r="C166" s="77" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>208</v>
       </c>
       <c r="E166" s="68" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F166" s="64" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="99"/>
-      <c r="B167" s="96"/>
+      <c r="A167" s="114"/>
+      <c r="B167" s="111"/>
       <c r="C167" s="77" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E167" s="68" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F167" s="64" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="100"/>
-      <c r="B168" s="97"/>
+      <c r="A168" s="115"/>
+      <c r="B168" s="112"/>
       <c r="C168" s="77" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D168" s="41" t="s">
         <v>211</v>
       </c>
       <c r="E168" s="44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F168" s="66" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="85" t="s">
+      <c r="A169" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="B169" s="101" t="s">
+      <c r="B169" s="116" t="s">
         <v>213</v>
       </c>
       <c r="C169" s="77" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D169" s="58" t="s">
         <v>222</v>
@@ -6018,10 +6018,10 @@
       </c>
     </row>
     <row r="170" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="86"/>
-      <c r="B170" s="102"/>
+      <c r="A170" s="104"/>
+      <c r="B170" s="117"/>
       <c r="C170" s="77" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D170" s="59" t="s">
         <v>35</v>
@@ -6034,13 +6034,13 @@
       </c>
     </row>
     <row r="171" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="86"/>
-      <c r="B171" s="102"/>
+      <c r="A171" s="104"/>
+      <c r="B171" s="117"/>
       <c r="C171" s="77" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D171" s="79" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E171" s="43" t="s">
         <v>219</v>
@@ -6050,10 +6050,10 @@
       </c>
     </row>
     <row r="172" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="86"/>
-      <c r="B172" s="102"/>
+      <c r="A172" s="104"/>
+      <c r="B172" s="117"/>
       <c r="C172" s="77" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D172" s="80" t="s">
         <v>216</v>
@@ -6066,13 +6066,13 @@
       </c>
     </row>
     <row r="173" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="86"/>
-      <c r="B173" s="102"/>
+      <c r="A173" s="104"/>
+      <c r="B173" s="117"/>
       <c r="C173" s="77" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D173" s="60" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E173" s="43" t="s">
         <v>221</v>
@@ -6082,13 +6082,13 @@
       </c>
     </row>
     <row r="174" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="86"/>
-      <c r="B174" s="102"/>
+      <c r="A174" s="104"/>
+      <c r="B174" s="117"/>
       <c r="C174" s="77" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D174" s="60" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E174" s="43" t="s">
         <v>219</v>
@@ -6098,118 +6098,118 @@
       </c>
     </row>
     <row r="175" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="86"/>
-      <c r="B175" s="102"/>
+      <c r="A175" s="104"/>
+      <c r="B175" s="117"/>
       <c r="C175" s="77" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D175" s="61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F175" s="63" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="176" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="86"/>
-      <c r="B176" s="102"/>
+      <c r="A176" s="104"/>
+      <c r="B176" s="117"/>
       <c r="C176" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="D176" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="F176" s="63"/>
+    </row>
+    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="104"/>
+      <c r="B177" s="117"/>
+      <c r="C177" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="E177" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="F177" s="31"/>
+    </row>
+    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="104"/>
+      <c r="B178" s="117"/>
+      <c r="C178" s="77" t="s">
         <v>433</v>
-      </c>
-      <c r="D176" s="59" t="s">
-        <v>557</v>
-      </c>
-      <c r="E176" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="F176" s="63"/>
-    </row>
-    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="86"/>
-      <c r="B177" s="102"/>
-      <c r="C177" s="77" t="s">
-        <v>434</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="E177" s="43" t="s">
-        <v>507</v>
-      </c>
-      <c r="F177" s="31"/>
-    </row>
-    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="86"/>
-      <c r="B178" s="102"/>
-      <c r="C178" s="77" t="s">
-        <v>435</v>
       </c>
       <c r="D178" s="23" t="s">
         <v>220</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F178" s="31"/>
     </row>
     <row r="179" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="87"/>
-      <c r="B179" s="102"/>
+      <c r="A179" s="105"/>
+      <c r="B179" s="117"/>
       <c r="C179" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="D179" s="84" t="s">
+        <v>543</v>
+      </c>
+      <c r="E179" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="F179" s="71"/>
+    </row>
+    <row r="180" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="106" t="s">
+        <v>455</v>
+      </c>
+      <c r="B180" s="108" t="s">
+        <v>456</v>
+      </c>
+      <c r="C180" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="D180" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F180" s="83"/>
+    </row>
+    <row r="181" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="107"/>
+      <c r="B181" s="109"/>
+      <c r="C181" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="D179" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="E179" s="68" t="s">
-        <v>546</v>
-      </c>
-      <c r="F179" s="71"/>
-    </row>
-    <row r="180" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="91" t="s">
-        <v>457</v>
-      </c>
-      <c r="B180" s="93" t="s">
+      <c r="D181" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="C180" s="77" t="s">
+      <c r="E181" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="F181" s="45"/>
+    </row>
+    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="B182" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="77" t="s">
         <v>437</v>
-      </c>
-      <c r="D180" s="82" t="s">
-        <v>459</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F180" s="83"/>
-    </row>
-    <row r="181" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="92"/>
-      <c r="B181" s="94"/>
-      <c r="C181" s="77" t="s">
-        <v>438</v>
-      </c>
-      <c r="D181" s="72" t="s">
-        <v>460</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="F181" s="45"/>
-    </row>
-    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="106" t="s">
-        <v>224</v>
-      </c>
-      <c r="B182" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="C182" s="77" t="s">
-        <v>439</v>
       </c>
       <c r="D182" s="70" t="s">
         <v>226</v>
@@ -6222,507 +6222,501 @@
       </c>
     </row>
     <row r="183" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="107"/>
-      <c r="B183" s="110"/>
+      <c r="A183" s="92"/>
+      <c r="B183" s="95"/>
       <c r="C183" s="77" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>229</v>
+        <v>568</v>
       </c>
       <c r="E183" s="46" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F183" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="107"/>
-      <c r="B184" s="110"/>
+      <c r="A184" s="92"/>
+      <c r="B184" s="95"/>
       <c r="C184" s="77" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E184" s="46" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F184" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="107"/>
-      <c r="B185" s="110"/>
+      <c r="A185" s="92"/>
+      <c r="B185" s="95"/>
       <c r="C185" s="77" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D185" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E185" s="47" t="s">
         <v>231</v>
-      </c>
-      <c r="E185" s="47" t="s">
-        <v>232</v>
       </c>
       <c r="F185" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="107"/>
-      <c r="B186" s="110"/>
+      <c r="A186" s="92"/>
+      <c r="B186" s="95"/>
       <c r="C186" s="77" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>233</v>
+        <v>569</v>
       </c>
       <c r="E186" s="46" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F186" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="107"/>
-      <c r="B187" s="110"/>
+      <c r="A187" s="92"/>
+      <c r="B187" s="95"/>
       <c r="C187" s="77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D187" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="E187" s="46" t="s">
         <v>515</v>
-      </c>
-      <c r="E187" s="46" t="s">
-        <v>517</v>
       </c>
       <c r="F187" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="107"/>
-      <c r="B188" s="110"/>
+      <c r="A188" s="92"/>
+      <c r="B188" s="95"/>
       <c r="C188" s="77" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E188" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F188" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="107"/>
-      <c r="B189" s="110"/>
+      <c r="A189" s="92"/>
+      <c r="B189" s="95"/>
       <c r="C189" s="77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E189" s="46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F189" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="107"/>
-      <c r="B190" s="110"/>
+      <c r="A190" s="92"/>
+      <c r="B190" s="95"/>
       <c r="C190" s="77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E190" s="46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F190" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="107"/>
-      <c r="B191" s="110"/>
+      <c r="A191" s="92"/>
+      <c r="B191" s="95"/>
       <c r="C191" s="77" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F191" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="107"/>
-      <c r="B192" s="110"/>
+      <c r="A192" s="92"/>
+      <c r="B192" s="95"/>
       <c r="C192" s="77" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E192" s="46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F192" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="107"/>
-      <c r="B193" s="110"/>
+      <c r="A193" s="92"/>
+      <c r="B193" s="95"/>
       <c r="C193" s="77" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E193" s="46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F193" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="107"/>
-      <c r="B194" s="110"/>
+      <c r="A194" s="92"/>
+      <c r="B194" s="95"/>
       <c r="C194" s="77" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E194" s="46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F194" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="107"/>
-      <c r="B195" s="110"/>
+      <c r="A195" s="92"/>
+      <c r="B195" s="95"/>
       <c r="C195" s="77" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E195" s="46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F195" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="107"/>
-      <c r="B196" s="110"/>
+      <c r="A196" s="92"/>
+      <c r="B196" s="95"/>
       <c r="C196" s="77" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E196" s="46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F196" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="107"/>
-      <c r="B197" s="110"/>
+      <c r="A197" s="92"/>
+      <c r="B197" s="95"/>
       <c r="C197" s="77" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E197" s="46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F197" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="107"/>
-      <c r="B198" s="110"/>
+      <c r="A198" s="92"/>
+      <c r="B198" s="95"/>
       <c r="C198" s="77" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E198" s="46" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F198" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="107"/>
-      <c r="B199" s="110"/>
+      <c r="A199" s="92"/>
+      <c r="B199" s="95"/>
       <c r="C199" s="77" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E199" s="46" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F199" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="107"/>
-      <c r="B200" s="111"/>
+      <c r="A200" s="92"/>
+      <c r="B200" s="96"/>
       <c r="C200" s="77" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D200" s="69" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F200" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="107"/>
-      <c r="B201" s="111"/>
+      <c r="A201" s="92"/>
+      <c r="B201" s="96"/>
       <c r="C201" s="77" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D201" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="E201" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="F201" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="108"/>
-      <c r="B202" s="112"/>
+      <c r="A202" s="93"/>
+      <c r="B202" s="97"/>
       <c r="C202" s="77" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D202" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E202" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="F202" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="55" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="B203" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="E202" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="F202" s="37" t="s">
+      <c r="C203" s="77" t="s">
+        <v>465</v>
+      </c>
+      <c r="D203" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" s="55" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="B203" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C203" s="77" t="s">
-        <v>467</v>
-      </c>
-      <c r="D203" s="13" t="s">
+      <c r="E203" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="F203" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E203" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="F203" s="15" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="204" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="86"/>
+      <c r="A204" s="104"/>
       <c r="B204" s="89"/>
       <c r="C204" s="77" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E204" s="50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F204" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="86"/>
+      <c r="A205" s="104"/>
       <c r="B205" s="89"/>
       <c r="C205" s="77" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E205" s="50" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F205" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="86"/>
+      <c r="A206" s="104"/>
       <c r="B206" s="89"/>
       <c r="C206" s="77" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E206" s="50" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F206" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="86"/>
+      <c r="A207" s="104"/>
       <c r="B207" s="89"/>
       <c r="C207" s="77" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E207" s="50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F207" s="52"/>
     </row>
     <row r="208" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="86"/>
+      <c r="A208" s="104"/>
       <c r="B208" s="89"/>
       <c r="C208" s="77" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E208" s="50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F208" s="52"/>
     </row>
     <row r="209" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="86"/>
+      <c r="A209" s="104"/>
       <c r="B209" s="89"/>
       <c r="C209" s="77" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E209" s="50" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F209" s="52"/>
     </row>
     <row r="210" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="86"/>
+      <c r="A210" s="104"/>
       <c r="B210" s="89"/>
       <c r="C210" s="77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E210" s="50" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F210" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="86"/>
+      <c r="A211" s="104"/>
       <c r="B211" s="89"/>
       <c r="C211" s="77" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E211" s="50" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="86"/>
+      <c r="A212" s="104"/>
       <c r="B212" s="89"/>
       <c r="C212" s="77" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E212" s="50" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="87"/>
+      <c r="A213" s="105"/>
       <c r="B213" s="90"/>
       <c r="C213" s="77" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E213" s="53" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F213" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="A182:A202"/>
-    <mergeCell ref="B182:B202"/>
-    <mergeCell ref="A15:A76"/>
-    <mergeCell ref="B15:B76"/>
     <mergeCell ref="A203:A213"/>
     <mergeCell ref="B203:B213"/>
     <mergeCell ref="A180:A181"/>
@@ -6731,6 +6725,12 @@
     <mergeCell ref="A77:A168"/>
     <mergeCell ref="A169:A179"/>
     <mergeCell ref="B169:B179"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="A182:A202"/>
+    <mergeCell ref="B182:B202"/>
+    <mergeCell ref="A15:A76"/>
+    <mergeCell ref="B15:B76"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>

--- a/Requirments/SRS/SRS.xlsx
+++ b/Requirments/SRS/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA8FDF-9624-4C99-91A0-4D97F1AEBCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54AB02F-F1E5-4BD7-9E2A-86561DD5805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,9 +776,6 @@
     <t>The reserved car advertisement is hidden from the available car list</t>
   </si>
   <si>
-    <t>Reservation of a car decreases the available car number in the car list</t>
-  </si>
-  <si>
     <t>Car reservation duration is 72 hours.</t>
   </si>
   <si>
@@ -1737,6 +1734,9 @@
   </si>
   <si>
     <t>Manufacturing Year input shall be numeric only.</t>
+  </si>
+  <si>
+    <t>Reservation of a car decreases the available cars</t>
   </si>
 </sst>
 </file>
@@ -2667,6 +2667,60 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2676,15 +2730,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2720,51 +2765,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3315,7 +3315,7 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="103" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -3335,10 +3335,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="89"/>
       <c r="C3" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>92</v>
@@ -3351,10 +3351,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="89"/>
       <c r="C4" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>95</v>
@@ -3367,10 +3367,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="89"/>
       <c r="C5" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>94</v>
@@ -3383,10 +3383,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="89"/>
       <c r="C6" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>93</v>
@@ -3399,10 +3399,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="86"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="89"/>
       <c r="C7" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>97</v>
@@ -3415,10 +3415,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="86"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="89"/>
       <c r="C8" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>98</v>
@@ -3431,10 +3431,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="89"/>
       <c r="C9" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>99</v>
@@ -3447,10 +3447,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="86"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="89"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>100</v>
@@ -3463,10 +3463,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="89"/>
       <c r="C11" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>96</v>
@@ -3479,26 +3479,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="86"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="89"/>
       <c r="C12" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="86"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="89"/>
       <c r="C13" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>103</v>
@@ -3511,28 +3511,28 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="90"/>
       <c r="C14" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>547</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>269</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>548</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="F14" s="78"/>
-    </row>
-    <row r="15" spans="1:8" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>270</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>16</v>
@@ -3545,26 +3545,26 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>19</v>
@@ -3577,10 +3577,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>20</v>
@@ -3593,26 +3593,26 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>23</v>
@@ -3625,10 +3625,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="98"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>24</v>
@@ -3641,10 +3641,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="98"/>
-      <c r="B22" s="101"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>25</v>
@@ -3657,10 +3657,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="98"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>26</v>
@@ -3673,26 +3673,26 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="98"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="98"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>28</v>
@@ -3705,10 +3705,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="98"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>29</v>
@@ -3721,26 +3721,26 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="98"/>
-      <c r="B27" s="101"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="77" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="98"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>32</v>
@@ -3753,10 +3753,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="98"/>
-      <c r="B29" s="101"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>33</v>
@@ -3769,10 +3769,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>34</v>
@@ -3785,10 +3785,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="98"/>
-      <c r="B31" s="101"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>35</v>
@@ -3801,13 +3801,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="98"/>
-      <c r="B32" s="101"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>7</v>
@@ -3817,10 +3817,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="98"/>
-      <c r="B33" s="101"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>36</v>
@@ -3833,26 +3833,26 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="98"/>
-      <c r="B34" s="101"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="98"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>39</v>
@@ -3865,10 +3865,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="98"/>
-      <c r="B36" s="101"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>40</v>
@@ -3881,10 +3881,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="98"/>
-      <c r="B37" s="101"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>41</v>
@@ -3897,10 +3897,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="98"/>
-      <c r="B38" s="101"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>42</v>
@@ -3913,26 +3913,26 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="98"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="98"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>44</v>
@@ -3945,10 +3945,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="98"/>
-      <c r="B41" s="101"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>45</v>
@@ -3961,42 +3961,42 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="98"/>
-      <c r="B42" s="101"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="98"/>
-      <c r="B43" s="101"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="98"/>
-      <c r="B44" s="101"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>49</v>
@@ -4009,10 +4009,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="98"/>
-      <c r="B45" s="101"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>50</v>
@@ -4025,42 +4025,42 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="98"/>
-      <c r="B46" s="101"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="98"/>
-      <c r="B47" s="101"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="98"/>
-      <c r="B48" s="101"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>54</v>
@@ -4073,74 +4073,74 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="98"/>
-      <c r="B49" s="101"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="98"/>
-      <c r="B50" s="101"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="98"/>
-      <c r="B51" s="101"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="98"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="116"/>
       <c r="C52" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="98"/>
-      <c r="B53" s="101"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>57</v>
@@ -4153,10 +4153,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="55" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="98"/>
-      <c r="B54" s="101"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>58</v>
@@ -4169,45 +4169,45 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="98"/>
-      <c r="B55" s="101"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="98"/>
-      <c r="B56" s="101"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="98"/>
-      <c r="B57" s="101"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>10</v>
@@ -4217,13 +4217,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="98"/>
-      <c r="B58" s="101"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>10</v>
@@ -4233,109 +4233,109 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="98"/>
-      <c r="B59" s="101"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F59" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="98"/>
-      <c r="B60" s="101"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="98"/>
-      <c r="B61" s="101"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="98"/>
-      <c r="B62" s="101"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F62" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="98"/>
-      <c r="B63" s="101"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="98"/>
-      <c r="B64" s="101"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="98"/>
-      <c r="B65" s="101"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>11</v>
@@ -4345,13 +4345,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="98"/>
-      <c r="B66" s="101"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="116"/>
       <c r="C66" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>11</v>
@@ -4361,42 +4361,42 @@
       </c>
     </row>
     <row r="67" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="98"/>
-      <c r="B67" s="101"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="116"/>
       <c r="C67" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="98"/>
-      <c r="B68" s="101"/>
+      <c r="A68" s="113"/>
+      <c r="B68" s="116"/>
       <c r="C68" s="77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="98"/>
-      <c r="B69" s="101"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>72</v>
@@ -4409,10 +4409,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="98"/>
-      <c r="B70" s="101"/>
+      <c r="A70" s="113"/>
+      <c r="B70" s="116"/>
       <c r="C70" s="77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>73</v>
@@ -4425,10 +4425,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="98"/>
-      <c r="B71" s="101"/>
+      <c r="A71" s="113"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>74</v>
@@ -4441,110 +4441,110 @@
       </c>
     </row>
     <row r="72" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="98"/>
-      <c r="B72" s="101"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="98"/>
-      <c r="B73" s="101"/>
+      <c r="A73" s="113"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="98"/>
-      <c r="B74" s="101"/>
+      <c r="A74" s="113"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="98"/>
-      <c r="B75" s="101"/>
+      <c r="A75" s="113"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="99"/>
-      <c r="B76" s="102"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F76" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="113" t="s">
+      <c r="A77" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="95" t="s">
         <v>172</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F77" s="62" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="114"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="96"/>
       <c r="C78" s="77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>173</v>
@@ -4557,106 +4557,106 @@
       </c>
     </row>
     <row r="79" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="114"/>
-      <c r="B79" s="111"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>174</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F79" s="63" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="114"/>
-      <c r="B80" s="111"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>175</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F80" s="63" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="114"/>
-      <c r="B81" s="111"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>176</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F81" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="114"/>
-      <c r="B82" s="111"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>177</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F82" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="114"/>
-      <c r="B83" s="111"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>178</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F83" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="114"/>
-      <c r="B84" s="111"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>179</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F84" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="114"/>
-      <c r="B85" s="111"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>180</v>
@@ -4669,170 +4669,170 @@
       </c>
     </row>
     <row r="86" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="114"/>
-      <c r="B86" s="111"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F86" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="114"/>
-      <c r="B87" s="111"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>182</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F87" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="114"/>
-      <c r="B88" s="111"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>183</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F88" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="114"/>
-      <c r="B89" s="111"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F89" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="114"/>
-      <c r="B90" s="111"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F90" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="114"/>
-      <c r="B91" s="111"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F91" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="114"/>
-      <c r="B92" s="111"/>
+      <c r="A92" s="99"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F92" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="114"/>
-      <c r="B93" s="111"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F93" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="114"/>
-      <c r="B94" s="111"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="96"/>
       <c r="C94" s="77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F94" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="114"/>
-      <c r="B95" s="111"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="96"/>
       <c r="C95" s="77" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F95" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="114"/>
-      <c r="B96" s="111"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="96"/>
       <c r="C96" s="77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>119</v>
@@ -4845,106 +4845,106 @@
       </c>
     </row>
     <row r="97" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="114"/>
-      <c r="B97" s="111"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F97" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="114"/>
-      <c r="B98" s="111"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F98" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="114"/>
-      <c r="B99" s="111"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>123</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F99" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="114"/>
-      <c r="B100" s="111"/>
+      <c r="A100" s="99"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>124</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F100" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="114"/>
-      <c r="B101" s="111"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F101" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="114"/>
-      <c r="B102" s="111"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>186</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F102" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="114"/>
-      <c r="B103" s="111"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>185</v>
@@ -4957,186 +4957,186 @@
       </c>
     </row>
     <row r="104" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="114"/>
-      <c r="B104" s="111"/>
+      <c r="A104" s="99"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D104" s="22" t="s">
         <v>184</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F104" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="114"/>
-      <c r="B105" s="111"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>126</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F105" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="114"/>
-      <c r="B106" s="111"/>
+      <c r="A106" s="99"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>187</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F106" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="114"/>
-      <c r="B107" s="111"/>
+      <c r="A107" s="99"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>188</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F107" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="114"/>
-      <c r="B108" s="111"/>
+      <c r="A108" s="99"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D108" s="22" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F108" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="114"/>
-      <c r="B109" s="111"/>
+      <c r="A109" s="99"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F109" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="114"/>
-      <c r="B110" s="111"/>
+      <c r="A110" s="99"/>
+      <c r="B110" s="96"/>
       <c r="C110" s="77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>131</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F110" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="114"/>
-      <c r="B111" s="111"/>
+      <c r="A111" s="99"/>
+      <c r="B111" s="96"/>
       <c r="C111" s="77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F111" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="114"/>
-      <c r="B112" s="111"/>
+      <c r="A112" s="99"/>
+      <c r="B112" s="96"/>
       <c r="C112" s="77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>133</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F112" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="114"/>
-      <c r="B113" s="111"/>
+      <c r="A113" s="99"/>
+      <c r="B113" s="96"/>
       <c r="C113" s="77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F113" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="114"/>
-      <c r="B114" s="111"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="96"/>
       <c r="C114" s="77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F114" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="114"/>
-      <c r="B115" s="111"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="96"/>
       <c r="C115" s="77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>135</v>
@@ -5149,26 +5149,26 @@
       </c>
     </row>
     <row r="116" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="114"/>
-      <c r="B116" s="111"/>
+      <c r="A116" s="99"/>
+      <c r="B116" s="96"/>
       <c r="C116" s="77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>136</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F116" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="114"/>
-      <c r="B117" s="111"/>
+      <c r="A117" s="99"/>
+      <c r="B117" s="96"/>
       <c r="C117" s="77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>191</v>
@@ -5181,74 +5181,74 @@
       </c>
     </row>
     <row r="118" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="114"/>
-      <c r="B118" s="111"/>
+      <c r="A118" s="99"/>
+      <c r="B118" s="96"/>
       <c r="C118" s="77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>190</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F118" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="114"/>
-      <c r="B119" s="111"/>
+      <c r="A119" s="99"/>
+      <c r="B119" s="96"/>
       <c r="C119" s="77" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D119" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F119" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="114"/>
-      <c r="B120" s="111"/>
+      <c r="A120" s="99"/>
+      <c r="B120" s="96"/>
       <c r="C120" s="77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>194</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F120" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="55" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="114"/>
-      <c r="B121" s="111"/>
+      <c r="A121" s="99"/>
+      <c r="B121" s="96"/>
       <c r="C121" s="77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D121" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F121" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="114"/>
-      <c r="B122" s="111"/>
+      <c r="A122" s="99"/>
+      <c r="B122" s="96"/>
       <c r="C122" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D122" s="22" t="s">
         <v>198</v>
@@ -5261,74 +5261,74 @@
       </c>
     </row>
     <row r="123" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="114"/>
-      <c r="B123" s="111"/>
+      <c r="A123" s="99"/>
+      <c r="B123" s="96"/>
       <c r="C123" s="77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D123" s="22" t="s">
         <v>199</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F123" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="114"/>
-      <c r="B124" s="111"/>
+      <c r="A124" s="99"/>
+      <c r="B124" s="96"/>
       <c r="C124" s="77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>192</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F124" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="114"/>
-      <c r="B125" s="111"/>
+      <c r="A125" s="99"/>
+      <c r="B125" s="96"/>
       <c r="C125" s="77" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D125" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F125" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="114"/>
-      <c r="B126" s="111"/>
+      <c r="A126" s="99"/>
+      <c r="B126" s="96"/>
       <c r="C126" s="77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D126" s="22" t="s">
         <v>138</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F126" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="114"/>
-      <c r="B127" s="111"/>
+      <c r="A127" s="99"/>
+      <c r="B127" s="96"/>
       <c r="C127" s="77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>200</v>
@@ -5341,74 +5341,74 @@
       </c>
     </row>
     <row r="128" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="114"/>
-      <c r="B128" s="111"/>
+      <c r="A128" s="99"/>
+      <c r="B128" s="96"/>
       <c r="C128" s="77" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>201</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F128" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="114"/>
-      <c r="B129" s="111"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="96"/>
       <c r="C129" s="77" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>196</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F129" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="114"/>
-      <c r="B130" s="111"/>
+      <c r="A130" s="99"/>
+      <c r="B130" s="96"/>
       <c r="C130" s="77" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>197</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F130" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="114"/>
-      <c r="B131" s="111"/>
+      <c r="A131" s="99"/>
+      <c r="B131" s="96"/>
       <c r="C131" s="77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>139</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F131" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="114"/>
-      <c r="B132" s="111"/>
+      <c r="A132" s="99"/>
+      <c r="B132" s="96"/>
       <c r="C132" s="77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>202</v>
@@ -5421,522 +5421,522 @@
       </c>
     </row>
     <row r="133" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="114"/>
-      <c r="B133" s="111"/>
+      <c r="A133" s="99"/>
+      <c r="B133" s="96"/>
       <c r="C133" s="77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>203</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F133" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="114"/>
-      <c r="B134" s="111"/>
+      <c r="A134" s="99"/>
+      <c r="B134" s="96"/>
       <c r="C134" s="77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>205</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F134" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="114"/>
-      <c r="B135" s="111"/>
+      <c r="A135" s="99"/>
+      <c r="B135" s="96"/>
       <c r="C135" s="77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F135" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="114"/>
-      <c r="B136" s="111"/>
+      <c r="A136" s="99"/>
+      <c r="B136" s="96"/>
       <c r="C136" s="77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>140</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F136" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="114"/>
-      <c r="B137" s="111"/>
+      <c r="A137" s="99"/>
+      <c r="B137" s="96"/>
       <c r="C137" s="77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D137" s="22" t="s">
         <v>142</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F137" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="114"/>
-      <c r="B138" s="111"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="96"/>
       <c r="C138" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D138" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F138" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="114"/>
-      <c r="B139" s="111"/>
+      <c r="A139" s="99"/>
+      <c r="B139" s="96"/>
       <c r="C139" s="77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D139" s="22" t="s">
         <v>144</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F139" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="114"/>
-      <c r="B140" s="111"/>
+      <c r="A140" s="99"/>
+      <c r="B140" s="96"/>
       <c r="C140" s="77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D140" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F140" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="114"/>
-      <c r="B141" s="111"/>
+      <c r="A141" s="99"/>
+      <c r="B141" s="96"/>
       <c r="C141" s="77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>146</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F141" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="114"/>
-      <c r="B142" s="111"/>
+      <c r="A142" s="99"/>
+      <c r="B142" s="96"/>
       <c r="C142" s="77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>148</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F142" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="114"/>
-      <c r="B143" s="111"/>
+      <c r="A143" s="99"/>
+      <c r="B143" s="96"/>
       <c r="C143" s="77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D143" s="22" t="s">
         <v>149</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F143" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="114"/>
-      <c r="B144" s="111"/>
+      <c r="A144" s="99"/>
+      <c r="B144" s="96"/>
       <c r="C144" s="77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D144" s="22" t="s">
         <v>150</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F144" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="114"/>
-      <c r="B145" s="111"/>
+      <c r="A145" s="99"/>
+      <c r="B145" s="96"/>
       <c r="C145" s="77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D145" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F145" s="65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="114"/>
-      <c r="B146" s="111"/>
+      <c r="A146" s="99"/>
+      <c r="B146" s="96"/>
       <c r="C146" s="77" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D146" s="22" t="s">
         <v>152</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F146" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="114"/>
-      <c r="B147" s="111"/>
+      <c r="A147" s="99"/>
+      <c r="B147" s="96"/>
       <c r="C147" s="77" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D147" s="22" t="s">
         <v>154</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F147" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="114"/>
-      <c r="B148" s="111"/>
+      <c r="A148" s="99"/>
+      <c r="B148" s="96"/>
       <c r="C148" s="77" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D148" s="22" t="s">
         <v>155</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F148" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="114"/>
-      <c r="B149" s="111"/>
+      <c r="A149" s="99"/>
+      <c r="B149" s="96"/>
       <c r="C149" s="77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D149" s="22" t="s">
         <v>156</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F149" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="114"/>
-      <c r="B150" s="111"/>
+      <c r="A150" s="99"/>
+      <c r="B150" s="96"/>
       <c r="C150" s="77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D150" s="22" t="s">
         <v>157</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F150" s="65" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="114"/>
-      <c r="B151" s="111"/>
+      <c r="A151" s="99"/>
+      <c r="B151" s="96"/>
       <c r="C151" s="77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D151" s="22" t="s">
         <v>158</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F151" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="114"/>
-      <c r="B152" s="111"/>
+      <c r="A152" s="99"/>
+      <c r="B152" s="96"/>
       <c r="C152" s="77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>160</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F152" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="114"/>
-      <c r="B153" s="111"/>
+      <c r="A153" s="99"/>
+      <c r="B153" s="96"/>
       <c r="C153" s="77" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F153" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="114"/>
-      <c r="B154" s="111"/>
+      <c r="A154" s="99"/>
+      <c r="B154" s="96"/>
       <c r="C154" s="77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>162</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F154" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="114"/>
-      <c r="B155" s="111"/>
+      <c r="A155" s="99"/>
+      <c r="B155" s="96"/>
       <c r="C155" s="77" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D155" s="22" t="s">
         <v>163</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F155" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="114"/>
-      <c r="B156" s="111"/>
+      <c r="A156" s="99"/>
+      <c r="B156" s="96"/>
       <c r="C156" s="77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D156" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F156" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="114"/>
-      <c r="B157" s="111"/>
+      <c r="A157" s="99"/>
+      <c r="B157" s="96"/>
       <c r="C157" s="77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D157" s="22" t="s">
         <v>166</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F157" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="114"/>
-      <c r="B158" s="111"/>
+      <c r="A158" s="99"/>
+      <c r="B158" s="96"/>
       <c r="C158" s="77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>167</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F158" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="114"/>
-      <c r="B159" s="111"/>
+      <c r="A159" s="99"/>
+      <c r="B159" s="96"/>
       <c r="C159" s="77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>168</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F159" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="114"/>
-      <c r="B160" s="111"/>
+      <c r="A160" s="99"/>
+      <c r="B160" s="96"/>
       <c r="C160" s="77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>169</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F160" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="114"/>
-      <c r="B161" s="111"/>
+      <c r="A161" s="99"/>
+      <c r="B161" s="96"/>
       <c r="C161" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>207</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F161" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="114"/>
-      <c r="B162" s="111"/>
+      <c r="A162" s="99"/>
+      <c r="B162" s="96"/>
       <c r="C162" s="77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>206</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F162" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="114"/>
-      <c r="B163" s="111"/>
+      <c r="A163" s="99"/>
+      <c r="B163" s="96"/>
       <c r="C163" s="77" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F163" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="114"/>
-      <c r="B164" s="111"/>
+      <c r="A164" s="99"/>
+      <c r="B164" s="96"/>
       <c r="C164" s="77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D164" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="E164" s="43" t="s">
         <v>532</v>
-      </c>
-      <c r="E164" s="43" t="s">
-        <v>533</v>
       </c>
       <c r="F164" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="114"/>
-      <c r="B165" s="111"/>
+      <c r="A165" s="99"/>
+      <c r="B165" s="96"/>
       <c r="C165" s="77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>209</v>
@@ -5950,62 +5950,62 @@
       <c r="P165" s="56"/>
     </row>
     <row r="166" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="114"/>
-      <c r="B166" s="111"/>
+      <c r="A166" s="99"/>
+      <c r="B166" s="96"/>
       <c r="C166" s="77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>208</v>
       </c>
       <c r="E166" s="68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F166" s="64" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="114"/>
-      <c r="B167" s="111"/>
+      <c r="A167" s="99"/>
+      <c r="B167" s="96"/>
       <c r="C167" s="77" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E167" s="68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F167" s="64" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="115"/>
-      <c r="B168" s="112"/>
+      <c r="A168" s="100"/>
+      <c r="B168" s="97"/>
       <c r="C168" s="77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D168" s="41" t="s">
         <v>211</v>
       </c>
       <c r="E168" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F168" s="66" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="103" t="s">
+      <c r="A169" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="B169" s="116" t="s">
+      <c r="B169" s="101" t="s">
         <v>213</v>
       </c>
       <c r="C169" s="77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D169" s="58" t="s">
         <v>222</v>
@@ -6018,10 +6018,10 @@
       </c>
     </row>
     <row r="170" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="104"/>
-      <c r="B170" s="117"/>
+      <c r="A170" s="86"/>
+      <c r="B170" s="102"/>
       <c r="C170" s="77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D170" s="59" t="s">
         <v>35</v>
@@ -6034,13 +6034,13 @@
       </c>
     </row>
     <row r="171" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="104"/>
-      <c r="B171" s="117"/>
+      <c r="A171" s="86"/>
+      <c r="B171" s="102"/>
       <c r="C171" s="77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D171" s="79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E171" s="43" t="s">
         <v>219</v>
@@ -6050,10 +6050,10 @@
       </c>
     </row>
     <row r="172" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="104"/>
-      <c r="B172" s="117"/>
+      <c r="A172" s="86"/>
+      <c r="B172" s="102"/>
       <c r="C172" s="77" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D172" s="80" t="s">
         <v>216</v>
@@ -6066,13 +6066,13 @@
       </c>
     </row>
     <row r="173" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="104"/>
-      <c r="B173" s="117"/>
+      <c r="A173" s="86"/>
+      <c r="B173" s="102"/>
       <c r="C173" s="77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D173" s="60" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E173" s="43" t="s">
         <v>221</v>
@@ -6082,13 +6082,13 @@
       </c>
     </row>
     <row r="174" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="104"/>
-      <c r="B174" s="117"/>
+      <c r="A174" s="86"/>
+      <c r="B174" s="102"/>
       <c r="C174" s="77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D174" s="60" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E174" s="43" t="s">
         <v>219</v>
@@ -6098,118 +6098,118 @@
       </c>
     </row>
     <row r="175" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="104"/>
-      <c r="B175" s="117"/>
+      <c r="A175" s="86"/>
+      <c r="B175" s="102"/>
       <c r="C175" s="77" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D175" s="61" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F175" s="63" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="176" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="104"/>
-      <c r="B176" s="117"/>
+      <c r="A176" s="86"/>
+      <c r="B176" s="102"/>
       <c r="C176" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="D176" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="F176" s="63"/>
+    </row>
+    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="86"/>
+      <c r="B177" s="102"/>
+      <c r="C177" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="D176" s="59" t="s">
-        <v>555</v>
-      </c>
-      <c r="E176" s="43" t="s">
+      <c r="D177" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E177" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="F176" s="63"/>
-    </row>
-    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="104"/>
-      <c r="B177" s="117"/>
-      <c r="C177" s="77" t="s">
+      <c r="F177" s="31"/>
+    </row>
+    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="86"/>
+      <c r="B178" s="102"/>
+      <c r="C178" s="77" t="s">
         <v>432</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="E177" s="43" t="s">
-        <v>505</v>
-      </c>
-      <c r="F177" s="31"/>
-    </row>
-    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="104"/>
-      <c r="B178" s="117"/>
-      <c r="C178" s="77" t="s">
-        <v>433</v>
       </c>
       <c r="D178" s="23" t="s">
         <v>220</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F178" s="31"/>
     </row>
     <row r="179" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="105"/>
-      <c r="B179" s="117"/>
+      <c r="A179" s="87"/>
+      <c r="B179" s="102"/>
       <c r="C179" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D179" s="84" t="s">
+        <v>542</v>
+      </c>
+      <c r="E179" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="F179" s="71"/>
+    </row>
+    <row r="180" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="91" t="s">
+        <v>454</v>
+      </c>
+      <c r="B180" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="C180" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="D179" s="84" t="s">
-        <v>543</v>
-      </c>
-      <c r="E179" s="68" t="s">
-        <v>544</v>
-      </c>
-      <c r="F179" s="71"/>
-    </row>
-    <row r="180" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="106" t="s">
-        <v>455</v>
-      </c>
-      <c r="B180" s="108" t="s">
+      <c r="D180" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="C180" s="77" t="s">
+      <c r="E180" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="F180" s="83"/>
+    </row>
+    <row r="181" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="92"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="77" t="s">
         <v>435</v>
       </c>
-      <c r="D180" s="82" t="s">
+      <c r="D181" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="E181" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="F180" s="83"/>
-    </row>
-    <row r="181" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="107"/>
-      <c r="B181" s="109"/>
-      <c r="C181" s="77" t="s">
+      <c r="F181" s="45"/>
+    </row>
+    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B182" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="77" t="s">
         <v>436</v>
-      </c>
-      <c r="D181" s="72" t="s">
-        <v>458</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="F181" s="45"/>
-    </row>
-    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="B182" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="C182" s="77" t="s">
-        <v>437</v>
       </c>
       <c r="D182" s="70" t="s">
         <v>226</v>
@@ -6222,42 +6222,42 @@
       </c>
     </row>
     <row r="183" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="92"/>
-      <c r="B183" s="95"/>
+      <c r="A183" s="107"/>
+      <c r="B183" s="110"/>
       <c r="C183" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E183" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F183" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="92"/>
-      <c r="B184" s="95"/>
+      <c r="A184" s="107"/>
+      <c r="B184" s="110"/>
       <c r="C184" s="77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D184" s="21" t="s">
         <v>229</v>
       </c>
       <c r="E184" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F184" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="92"/>
-      <c r="B185" s="95"/>
+      <c r="A185" s="107"/>
+      <c r="B185" s="110"/>
       <c r="C185" s="77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D185" s="21" t="s">
         <v>230</v>
@@ -6270,42 +6270,42 @@
       </c>
     </row>
     <row r="186" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="92"/>
-      <c r="B186" s="95"/>
+      <c r="A186" s="107"/>
+      <c r="B186" s="110"/>
       <c r="C186" s="77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E186" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F186" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="92"/>
-      <c r="B187" s="95"/>
+      <c r="A187" s="107"/>
+      <c r="B187" s="110"/>
       <c r="C187" s="77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E187" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F187" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="92"/>
-      <c r="B188" s="95"/>
+      <c r="A188" s="107"/>
+      <c r="B188" s="110"/>
       <c r="C188" s="77" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D188" s="21" t="s">
         <v>232</v>
@@ -6318,93 +6318,93 @@
       </c>
     </row>
     <row r="189" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="92"/>
-      <c r="B189" s="95"/>
+      <c r="A189" s="107"/>
+      <c r="B189" s="110"/>
       <c r="C189" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D189" s="21" t="s">
         <v>234</v>
       </c>
       <c r="E189" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F189" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="92"/>
-      <c r="B190" s="95"/>
+      <c r="A190" s="107"/>
+      <c r="B190" s="110"/>
       <c r="C190" s="77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E190" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F190" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="92"/>
-      <c r="B191" s="95"/>
+      <c r="A191" s="107"/>
+      <c r="B191" s="110"/>
       <c r="C191" s="77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F191" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="92"/>
-      <c r="B192" s="95"/>
+      <c r="A192" s="107"/>
+      <c r="B192" s="110"/>
       <c r="C192" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D192" s="21" t="s">
         <v>235</v>
       </c>
       <c r="E192" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F192" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="92"/>
-      <c r="B193" s="95"/>
+      <c r="A193" s="107"/>
+      <c r="B193" s="110"/>
       <c r="C193" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D193" s="21" t="s">
         <v>236</v>
       </c>
       <c r="E193" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F193" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="92"/>
-      <c r="B194" s="95"/>
+      <c r="A194" s="107"/>
+      <c r="B194" s="110"/>
       <c r="C194" s="77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E194" s="46" t="s">
         <v>237</v>
@@ -6414,206 +6414,206 @@
       </c>
     </row>
     <row r="195" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="92"/>
-      <c r="B195" s="95"/>
+      <c r="A195" s="107"/>
+      <c r="B195" s="110"/>
       <c r="C195" s="77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E195" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F195" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="92"/>
-      <c r="B196" s="95"/>
+      <c r="A196" s="107"/>
+      <c r="B196" s="110"/>
       <c r="C196" s="77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E196" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F196" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="92"/>
-      <c r="B197" s="95"/>
+      <c r="A197" s="107"/>
+      <c r="B197" s="110"/>
       <c r="C197" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E197" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F197" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="92"/>
-      <c r="B198" s="95"/>
+      <c r="A198" s="107"/>
+      <c r="B198" s="110"/>
       <c r="C198" s="77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E198" s="46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F198" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="92"/>
-      <c r="B199" s="95"/>
+      <c r="A199" s="107"/>
+      <c r="B199" s="110"/>
       <c r="C199" s="77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E199" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F199" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="92"/>
-      <c r="B200" s="96"/>
+      <c r="A200" s="107"/>
+      <c r="B200" s="111"/>
       <c r="C200" s="77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D200" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="E200" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>547</v>
       </c>
       <c r="F200" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="92"/>
-      <c r="B201" s="96"/>
+      <c r="A201" s="107"/>
+      <c r="B201" s="111"/>
       <c r="C201" s="77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D201" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F201" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="93"/>
-      <c r="B202" s="97"/>
+      <c r="A202" s="108"/>
+      <c r="B202" s="112"/>
       <c r="C202" s="77" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D202" s="20" t="s">
         <v>238</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F202" s="37" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="55" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="103" t="s">
-        <v>257</v>
+      <c r="A203" s="85" t="s">
+        <v>256</v>
       </c>
       <c r="B203" s="88" t="s">
         <v>240</v>
       </c>
       <c r="C203" s="77" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>241</v>
       </c>
       <c r="E203" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F203" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="104"/>
+      <c r="A204" s="86"/>
       <c r="B204" s="89"/>
       <c r="C204" s="77" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>244</v>
       </c>
       <c r="E204" s="50" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F204" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="104"/>
+      <c r="A205" s="86"/>
       <c r="B205" s="89"/>
       <c r="C205" s="77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D205" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E205" s="50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F205" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="104"/>
+      <c r="A206" s="86"/>
       <c r="B206" s="89"/>
       <c r="C206" s="77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>246</v>
       </c>
       <c r="E206" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F206" s="51" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="104"/>
+      <c r="A207" s="86"/>
       <c r="B207" s="89"/>
       <c r="C207" s="77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D207" s="22" t="s">
         <v>248</v>
@@ -6624,13 +6624,13 @@
       <c r="F207" s="52"/>
     </row>
     <row r="208" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="104"/>
+      <c r="A208" s="86"/>
       <c r="B208" s="89"/>
       <c r="C208" s="77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>249</v>
+        <v>569</v>
       </c>
       <c r="E208" s="50" t="s">
         <v>242</v>
@@ -6638,85 +6638,91 @@
       <c r="F208" s="52"/>
     </row>
     <row r="209" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="104"/>
+      <c r="A209" s="86"/>
       <c r="B209" s="89"/>
       <c r="C209" s="77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E209" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F209" s="52"/>
     </row>
     <row r="210" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="104"/>
+      <c r="A210" s="86"/>
       <c r="B210" s="89"/>
       <c r="C210" s="77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D210" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E210" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F210" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E210" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="F210" s="16" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="211" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="104"/>
+      <c r="A211" s="86"/>
       <c r="B211" s="89"/>
       <c r="C211" s="77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E211" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="104"/>
+      <c r="A212" s="86"/>
       <c r="B212" s="89"/>
       <c r="C212" s="77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D212" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E212" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F212" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E212" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="F212" s="16" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="213" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="105"/>
+      <c r="A213" s="87"/>
       <c r="B213" s="90"/>
       <c r="C213" s="77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E213" s="53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F213" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="A182:A202"/>
+    <mergeCell ref="B182:B202"/>
+    <mergeCell ref="A15:A76"/>
+    <mergeCell ref="B15:B76"/>
     <mergeCell ref="A203:A213"/>
     <mergeCell ref="B203:B213"/>
     <mergeCell ref="A180:A181"/>
@@ -6725,12 +6731,6 @@
     <mergeCell ref="A77:A168"/>
     <mergeCell ref="A169:A179"/>
     <mergeCell ref="B169:B179"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="A182:A202"/>
-    <mergeCell ref="B182:B202"/>
-    <mergeCell ref="A15:A76"/>
-    <mergeCell ref="B15:B76"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>

--- a/Requirments/SRS/SRS.xlsx
+++ b/Requirments/SRS/SRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\3D Objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54AB02F-F1E5-4BD7-9E2A-86561DD5805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0487FE61-4D58-40B4-8419-1586807D6647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="580">
   <si>
     <t>Feature ID</t>
   </si>
@@ -1737,13 +1737,43 @@
   </si>
   <si>
     <t>Reservation of a car decreases the available cars</t>
+  </si>
+  <si>
+    <t>SRS_213</t>
+  </si>
+  <si>
+    <t>User and Admin may Upload car image in image field (Optional)</t>
+  </si>
+  <si>
+    <t>SRS_214</t>
+  </si>
+  <si>
+    <t>Admin account can’t delete himself</t>
+  </si>
+  <si>
+    <t>SRS_215</t>
+  </si>
+  <si>
+    <t>if Admins tried to delete their accounts it will redirect to another page and display error message "This operation is not allowed"</t>
+  </si>
+  <si>
+    <t>If the image format is invalid like (docs) display the error message: "invalid input" in red font.</t>
+  </si>
+  <si>
+    <t>SRS_216</t>
+  </si>
+  <si>
+    <t>Advertisement_037</t>
+  </si>
+  <si>
+    <t>Advertisement_038</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,6 +1852,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2141,19 +2183,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2425,13 +2454,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2473,7 +2511,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2482,7 +2520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2505,7 +2543,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2557,7 +2595,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2592,13 +2630,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2606,16 +2647,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2624,7 +2662,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2636,37 +2674,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2685,40 +2732,31 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2727,9 +2765,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2739,7 +2774,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2757,7 +2792,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2765,6 +2800,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2948,8 +2998,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D1:F213" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="D1:F213" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D1:F217" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="D1:F217" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SRS description" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CRS_ID" dataDxfId="1"/>
@@ -3276,23 +3326,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView tabSelected="1" topLeftCell="B203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="151.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="83.88671875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="151.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="83.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3314,11 +3364,11 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -3334,9 +3384,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="104"/>
-      <c r="B3" s="89"/>
+    <row r="3" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="103"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="26" t="s">
         <v>257</v>
       </c>
@@ -3350,9 +3400,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104"/>
-      <c r="B4" s="89"/>
+    <row r="4" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="103"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="26" t="s">
         <v>258</v>
       </c>
@@ -3366,9 +3416,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="104"/>
-      <c r="B5" s="89"/>
+    <row r="5" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="103"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="26" t="s">
         <v>259</v>
       </c>
@@ -3382,9 +3432,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="104"/>
-      <c r="B6" s="89"/>
+    <row r="6" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="26" t="s">
         <v>260</v>
       </c>
@@ -3398,9 +3448,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="104"/>
-      <c r="B7" s="89"/>
+    <row r="7" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="26" t="s">
         <v>261</v>
       </c>
@@ -3414,9 +3464,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="104"/>
-      <c r="B8" s="89"/>
+    <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="26" t="s">
         <v>262</v>
       </c>
@@ -3430,9 +3480,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
-      <c r="B9" s="89"/>
+    <row r="9" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="103"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="26" t="s">
         <v>263</v>
       </c>
@@ -3446,9 +3496,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="89"/>
+    <row r="10" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="103"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="26" t="s">
         <v>264</v>
       </c>
@@ -3462,9 +3512,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="104"/>
-      <c r="B11" s="89"/>
+    <row r="11" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="103"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="26" t="s">
         <v>265</v>
       </c>
@@ -3478,9 +3528,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="104"/>
-      <c r="B12" s="89"/>
+    <row r="12" spans="1:8" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="103"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="26" t="s">
         <v>266</v>
       </c>
@@ -3494,9 +3544,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="104"/>
-      <c r="B13" s="89"/>
+    <row r="13" spans="1:8" s="55" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="103"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="26" t="s">
         <v>267</v>
       </c>
@@ -3510,9 +3560,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="105"/>
-      <c r="B14" s="90"/>
+    <row r="14" spans="1:8" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="104"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="77" t="s">
         <v>268</v>
       </c>
@@ -3524,11 +3574,11 @@
       </c>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:8" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113" t="s">
+    <row r="15" spans="1:8" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="114" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="77" t="s">
@@ -3544,9 +3594,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
+    <row r="16" spans="1:8" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="112"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="77" t="s">
         <v>270</v>
       </c>
@@ -3560,9 +3610,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
+    <row r="17" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="112"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="77" t="s">
         <v>271</v>
       </c>
@@ -3576,9 +3626,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="116"/>
+    <row r="18" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="112"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="77" t="s">
         <v>272</v>
       </c>
@@ -3592,9 +3642,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113"/>
-      <c r="B19" s="116"/>
+    <row r="19" spans="1:6" s="55" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="112"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="77" t="s">
         <v>273</v>
       </c>
@@ -3608,9 +3658,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="116"/>
+    <row r="20" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="112"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="77" t="s">
         <v>274</v>
       </c>
@@ -3624,9 +3674,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="116"/>
+    <row r="21" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="112"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="77" t="s">
         <v>275</v>
       </c>
@@ -3640,9 +3690,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="116"/>
+    <row r="22" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="112"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="77" t="s">
         <v>276</v>
       </c>
@@ -3656,9 +3706,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="113"/>
-      <c r="B23" s="116"/>
+    <row r="23" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="112"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="77" t="s">
         <v>277</v>
       </c>
@@ -3672,9 +3722,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="113"/>
-      <c r="B24" s="116"/>
+    <row r="24" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="112"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="77" t="s">
         <v>278</v>
       </c>
@@ -3688,9 +3738,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
+    <row r="25" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="112"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="77" t="s">
         <v>279</v>
       </c>
@@ -3704,9 +3754,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
+    <row r="26" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="112"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="77" t="s">
         <v>280</v>
       </c>
@@ -3720,9 +3770,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
+    <row r="27" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="112"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="77" t="s">
         <v>281</v>
       </c>
@@ -3736,9 +3786,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
-      <c r="B28" s="116"/>
+    <row r="28" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="112"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="77" t="s">
         <v>282</v>
       </c>
@@ -3752,9 +3802,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113"/>
-      <c r="B29" s="116"/>
+    <row r="29" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="112"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="77" t="s">
         <v>283</v>
       </c>
@@ -3768,9 +3818,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="113"/>
-      <c r="B30" s="116"/>
+    <row r="30" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="112"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="77" t="s">
         <v>284</v>
       </c>
@@ -3784,9 +3834,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="113"/>
-      <c r="B31" s="116"/>
+    <row r="31" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="112"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="77" t="s">
         <v>285</v>
       </c>
@@ -3800,9 +3850,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
+    <row r="32" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="112"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="77" t="s">
         <v>286</v>
       </c>
@@ -3816,9 +3866,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
-      <c r="B33" s="116"/>
+    <row r="33" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="112"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="77" t="s">
         <v>287</v>
       </c>
@@ -3832,9 +3882,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="113"/>
-      <c r="B34" s="116"/>
+    <row r="34" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="112"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="77" t="s">
         <v>288</v>
       </c>
@@ -3848,9 +3898,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
+    <row r="35" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="112"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="77" t="s">
         <v>289</v>
       </c>
@@ -3864,9 +3914,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
+    <row r="36" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="112"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="77" t="s">
         <v>290</v>
       </c>
@@ -3880,9 +3930,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
+    <row r="37" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="112"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="77" t="s">
         <v>291</v>
       </c>
@@ -3896,9 +3946,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="113"/>
-      <c r="B38" s="116"/>
+    <row r="38" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="112"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="77" t="s">
         <v>292</v>
       </c>
@@ -3912,9 +3962,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="113"/>
-      <c r="B39" s="116"/>
+    <row r="39" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="112"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="77" t="s">
         <v>293</v>
       </c>
@@ -3928,9 +3978,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="113"/>
-      <c r="B40" s="116"/>
+    <row r="40" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="112"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="77" t="s">
         <v>294</v>
       </c>
@@ -3944,9 +3994,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="113"/>
-      <c r="B41" s="116"/>
+    <row r="41" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="112"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="77" t="s">
         <v>295</v>
       </c>
@@ -3960,9 +4010,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="113"/>
-      <c r="B42" s="116"/>
+    <row r="42" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="112"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="77" t="s">
         <v>296</v>
       </c>
@@ -3976,9 +4026,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="113"/>
-      <c r="B43" s="116"/>
+    <row r="43" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="112"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="77" t="s">
         <v>297</v>
       </c>
@@ -3992,9 +4042,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="113"/>
-      <c r="B44" s="116"/>
+    <row r="44" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="112"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="77" t="s">
         <v>298</v>
       </c>
@@ -4008,9 +4058,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="113"/>
-      <c r="B45" s="116"/>
+    <row r="45" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="112"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="77" t="s">
         <v>299</v>
       </c>
@@ -4024,9 +4074,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="113"/>
-      <c r="B46" s="116"/>
+    <row r="46" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="112"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="77" t="s">
         <v>300</v>
       </c>
@@ -4040,9 +4090,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="113"/>
-      <c r="B47" s="116"/>
+    <row r="47" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="112"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="77" t="s">
         <v>301</v>
       </c>
@@ -4056,9 +4106,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="113"/>
-      <c r="B48" s="116"/>
+    <row r="48" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="112"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="77" t="s">
         <v>302</v>
       </c>
@@ -4072,9 +4122,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="113"/>
-      <c r="B49" s="116"/>
+    <row r="49" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="112"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="77" t="s">
         <v>303</v>
       </c>
@@ -4088,9 +4138,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="113"/>
-      <c r="B50" s="116"/>
+    <row r="50" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="112"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="77" t="s">
         <v>304</v>
       </c>
@@ -4104,9 +4154,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="113"/>
-      <c r="B51" s="116"/>
+    <row r="51" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="112"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="77" t="s">
         <v>305</v>
       </c>
@@ -4120,9 +4170,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="113"/>
-      <c r="B52" s="116"/>
+    <row r="52" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="112"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="77" t="s">
         <v>306</v>
       </c>
@@ -4136,9 +4186,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="113"/>
-      <c r="B53" s="116"/>
+    <row r="53" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="112"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="77" t="s">
         <v>307</v>
       </c>
@@ -4152,9 +4202,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="55" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="113"/>
-      <c r="B54" s="116"/>
+    <row r="54" spans="1:6" s="55" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="112"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="77" t="s">
         <v>308</v>
       </c>
@@ -4168,9 +4218,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="113"/>
-      <c r="B55" s="116"/>
+    <row r="55" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="112"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="77" t="s">
         <v>309</v>
       </c>
@@ -4184,9 +4234,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="113"/>
-      <c r="B56" s="116"/>
+    <row r="56" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="112"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="77" t="s">
         <v>310</v>
       </c>
@@ -4200,9 +4250,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="113"/>
-      <c r="B57" s="116"/>
+    <row r="57" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="112"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="77" t="s">
         <v>311</v>
       </c>
@@ -4216,9 +4266,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="113"/>
-      <c r="B58" s="116"/>
+    <row r="58" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="112"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="77" t="s">
         <v>312</v>
       </c>
@@ -4232,9 +4282,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="113"/>
-      <c r="B59" s="116"/>
+    <row r="59" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="112"/>
+      <c r="B59" s="115"/>
       <c r="C59" s="77" t="s">
         <v>313</v>
       </c>
@@ -4248,9 +4298,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="113"/>
-      <c r="B60" s="116"/>
+    <row r="60" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="112"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="77" t="s">
         <v>314</v>
       </c>
@@ -4264,9 +4314,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="113"/>
-      <c r="B61" s="116"/>
+    <row r="61" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="112"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="77" t="s">
         <v>315</v>
       </c>
@@ -4280,9 +4330,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="113"/>
-      <c r="B62" s="116"/>
+    <row r="62" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="112"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="77" t="s">
         <v>316</v>
       </c>
@@ -4296,9 +4346,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="113"/>
-      <c r="B63" s="116"/>
+    <row r="63" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="112"/>
+      <c r="B63" s="115"/>
       <c r="C63" s="77" t="s">
         <v>317</v>
       </c>
@@ -4312,9 +4362,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="113"/>
-      <c r="B64" s="116"/>
+    <row r="64" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="112"/>
+      <c r="B64" s="115"/>
       <c r="C64" s="77" t="s">
         <v>318</v>
       </c>
@@ -4328,9 +4378,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="113"/>
-      <c r="B65" s="116"/>
+    <row r="65" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="112"/>
+      <c r="B65" s="115"/>
       <c r="C65" s="77" t="s">
         <v>319</v>
       </c>
@@ -4344,9 +4394,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="113"/>
-      <c r="B66" s="116"/>
+    <row r="66" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="112"/>
+      <c r="B66" s="115"/>
       <c r="C66" s="77" t="s">
         <v>320</v>
       </c>
@@ -4360,9 +4410,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="113"/>
-      <c r="B67" s="116"/>
+    <row r="67" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="112"/>
+      <c r="B67" s="115"/>
       <c r="C67" s="77" t="s">
         <v>321</v>
       </c>
@@ -4376,9 +4426,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="113"/>
-      <c r="B68" s="116"/>
+    <row r="68" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="112"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="77" t="s">
         <v>322</v>
       </c>
@@ -4392,9 +4442,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="113"/>
-      <c r="B69" s="116"/>
+    <row r="69" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="112"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="77" t="s">
         <v>323</v>
       </c>
@@ -4408,9 +4458,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="113"/>
-      <c r="B70" s="116"/>
+    <row r="70" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="112"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="77" t="s">
         <v>324</v>
       </c>
@@ -4424,9 +4474,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="113"/>
-      <c r="B71" s="116"/>
+    <row r="71" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="112"/>
+      <c r="B71" s="115"/>
       <c r="C71" s="77" t="s">
         <v>325</v>
       </c>
@@ -4440,9 +4490,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="113"/>
-      <c r="B72" s="116"/>
+    <row r="72" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="112"/>
+      <c r="B72" s="115"/>
       <c r="C72" s="77" t="s">
         <v>326</v>
       </c>
@@ -4456,9 +4506,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="113"/>
-      <c r="B73" s="116"/>
+    <row r="73" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="112"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="77" t="s">
         <v>327</v>
       </c>
@@ -4472,9 +4522,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="113"/>
-      <c r="B74" s="116"/>
+    <row r="74" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="112"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="77" t="s">
         <v>328</v>
       </c>
@@ -4488,9 +4538,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="113"/>
-      <c r="B75" s="116"/>
+    <row r="75" spans="1:6" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="112"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="77" t="s">
         <v>329</v>
       </c>
@@ -4504,9 +4554,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="114"/>
-      <c r="B76" s="117"/>
+    <row r="76" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="113"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="77" t="s">
         <v>330</v>
       </c>
@@ -4520,11 +4570,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="98" t="s">
+    <row r="77" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="95" t="s">
+      <c r="B77" s="98" t="s">
         <v>172</v>
       </c>
       <c r="C77" s="77" t="s">
@@ -4540,9 +4590,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="99"/>
-      <c r="B78" s="96"/>
+    <row r="78" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="101"/>
+      <c r="B78" s="99"/>
       <c r="C78" s="77" t="s">
         <v>332</v>
       </c>
@@ -4556,9 +4606,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="99"/>
-      <c r="B79" s="96"/>
+    <row r="79" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="101"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="77" t="s">
         <v>333</v>
       </c>
@@ -4572,9 +4622,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="99"/>
-      <c r="B80" s="96"/>
+    <row r="80" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="101"/>
+      <c r="B80" s="99"/>
       <c r="C80" s="77" t="s">
         <v>334</v>
       </c>
@@ -4588,9 +4638,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="99"/>
-      <c r="B81" s="96"/>
+    <row r="81" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="101"/>
+      <c r="B81" s="99"/>
       <c r="C81" s="77" t="s">
         <v>335</v>
       </c>
@@ -4604,9 +4654,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="99"/>
-      <c r="B82" s="96"/>
+    <row r="82" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="101"/>
+      <c r="B82" s="99"/>
       <c r="C82" s="77" t="s">
         <v>336</v>
       </c>
@@ -4620,9 +4670,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="99"/>
-      <c r="B83" s="96"/>
+    <row r="83" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="101"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="77" t="s">
         <v>337</v>
       </c>
@@ -4636,9 +4686,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="99"/>
-      <c r="B84" s="96"/>
+    <row r="84" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="101"/>
+      <c r="B84" s="99"/>
       <c r="C84" s="77" t="s">
         <v>338</v>
       </c>
@@ -4652,9 +4702,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="99"/>
-      <c r="B85" s="96"/>
+    <row r="85" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="101"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="77" t="s">
         <v>339</v>
       </c>
@@ -4668,9 +4718,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="99"/>
-      <c r="B86" s="96"/>
+    <row r="86" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="101"/>
+      <c r="B86" s="99"/>
       <c r="C86" s="77" t="s">
         <v>340</v>
       </c>
@@ -4684,9 +4734,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="99"/>
-      <c r="B87" s="96"/>
+    <row r="87" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="101"/>
+      <c r="B87" s="99"/>
       <c r="C87" s="77" t="s">
         <v>341</v>
       </c>
@@ -4700,9 +4750,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="99"/>
-      <c r="B88" s="96"/>
+    <row r="88" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="101"/>
+      <c r="B88" s="99"/>
       <c r="C88" s="77" t="s">
         <v>342</v>
       </c>
@@ -4716,9 +4766,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="99"/>
-      <c r="B89" s="96"/>
+    <row r="89" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="101"/>
+      <c r="B89" s="99"/>
       <c r="C89" s="77" t="s">
         <v>343</v>
       </c>
@@ -4732,9 +4782,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="99"/>
-      <c r="B90" s="96"/>
+    <row r="90" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="101"/>
+      <c r="B90" s="99"/>
       <c r="C90" s="77" t="s">
         <v>344</v>
       </c>
@@ -4748,9 +4798,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="99"/>
-      <c r="B91" s="96"/>
+    <row r="91" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="101"/>
+      <c r="B91" s="99"/>
       <c r="C91" s="77" t="s">
         <v>345</v>
       </c>
@@ -4764,9 +4814,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="99"/>
-      <c r="B92" s="96"/>
+    <row r="92" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="101"/>
+      <c r="B92" s="99"/>
       <c r="C92" s="77" t="s">
         <v>346</v>
       </c>
@@ -4780,9 +4830,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="99"/>
-      <c r="B93" s="96"/>
+    <row r="93" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="101"/>
+      <c r="B93" s="99"/>
       <c r="C93" s="77" t="s">
         <v>347</v>
       </c>
@@ -4796,9 +4846,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="99"/>
-      <c r="B94" s="96"/>
+    <row r="94" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="101"/>
+      <c r="B94" s="99"/>
       <c r="C94" s="77" t="s">
         <v>348</v>
       </c>
@@ -4812,9 +4862,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="99"/>
-      <c r="B95" s="96"/>
+    <row r="95" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="101"/>
+      <c r="B95" s="99"/>
       <c r="C95" s="77" t="s">
         <v>349</v>
       </c>
@@ -4828,9 +4878,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="99"/>
-      <c r="B96" s="96"/>
+    <row r="96" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="101"/>
+      <c r="B96" s="99"/>
       <c r="C96" s="77" t="s">
         <v>350</v>
       </c>
@@ -4844,9 +4894,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="99"/>
-      <c r="B97" s="96"/>
+    <row r="97" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="101"/>
+      <c r="B97" s="99"/>
       <c r="C97" s="77" t="s">
         <v>351</v>
       </c>
@@ -4860,9 +4910,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="99"/>
-      <c r="B98" s="96"/>
+    <row r="98" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="101"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="77" t="s">
         <v>352</v>
       </c>
@@ -4876,9 +4926,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="99"/>
-      <c r="B99" s="96"/>
+    <row r="99" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="101"/>
+      <c r="B99" s="99"/>
       <c r="C99" s="77" t="s">
         <v>353</v>
       </c>
@@ -4892,9 +4942,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="99"/>
-      <c r="B100" s="96"/>
+    <row r="100" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="101"/>
+      <c r="B100" s="99"/>
       <c r="C100" s="77" t="s">
         <v>354</v>
       </c>
@@ -4908,9 +4958,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="99"/>
-      <c r="B101" s="96"/>
+    <row r="101" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="101"/>
+      <c r="B101" s="99"/>
       <c r="C101" s="77" t="s">
         <v>355</v>
       </c>
@@ -4924,9 +4974,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="99"/>
-      <c r="B102" s="96"/>
+    <row r="102" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="101"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="77" t="s">
         <v>356</v>
       </c>
@@ -4940,9 +4990,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="99"/>
-      <c r="B103" s="96"/>
+    <row r="103" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="101"/>
+      <c r="B103" s="99"/>
       <c r="C103" s="77" t="s">
         <v>357</v>
       </c>
@@ -4956,9 +5006,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="99"/>
-      <c r="B104" s="96"/>
+    <row r="104" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="101"/>
+      <c r="B104" s="99"/>
       <c r="C104" s="77" t="s">
         <v>358</v>
       </c>
@@ -4972,9 +5022,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="99"/>
-      <c r="B105" s="96"/>
+    <row r="105" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="101"/>
+      <c r="B105" s="99"/>
       <c r="C105" s="77" t="s">
         <v>359</v>
       </c>
@@ -4988,9 +5038,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="99"/>
-      <c r="B106" s="96"/>
+    <row r="106" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="101"/>
+      <c r="B106" s="99"/>
       <c r="C106" s="77" t="s">
         <v>360</v>
       </c>
@@ -5004,9 +5054,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="99"/>
-      <c r="B107" s="96"/>
+    <row r="107" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="101"/>
+      <c r="B107" s="99"/>
       <c r="C107" s="77" t="s">
         <v>361</v>
       </c>
@@ -5020,9 +5070,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="99"/>
-      <c r="B108" s="96"/>
+    <row r="108" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="101"/>
+      <c r="B108" s="99"/>
       <c r="C108" s="77" t="s">
         <v>362</v>
       </c>
@@ -5036,9 +5086,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="99"/>
-      <c r="B109" s="96"/>
+    <row r="109" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="101"/>
+      <c r="B109" s="99"/>
       <c r="C109" s="77" t="s">
         <v>363</v>
       </c>
@@ -5052,9 +5102,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="99"/>
-      <c r="B110" s="96"/>
+    <row r="110" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="101"/>
+      <c r="B110" s="99"/>
       <c r="C110" s="77" t="s">
         <v>364</v>
       </c>
@@ -5068,9 +5118,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="99"/>
-      <c r="B111" s="96"/>
+    <row r="111" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="101"/>
+      <c r="B111" s="99"/>
       <c r="C111" s="77" t="s">
         <v>365</v>
       </c>
@@ -5084,9 +5134,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="99"/>
-      <c r="B112" s="96"/>
+    <row r="112" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="101"/>
+      <c r="B112" s="99"/>
       <c r="C112" s="77" t="s">
         <v>366</v>
       </c>
@@ -5100,9 +5150,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="99"/>
-      <c r="B113" s="96"/>
+    <row r="113" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="101"/>
+      <c r="B113" s="99"/>
       <c r="C113" s="77" t="s">
         <v>367</v>
       </c>
@@ -5116,9 +5166,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="99"/>
-      <c r="B114" s="96"/>
+    <row r="114" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="101"/>
+      <c r="B114" s="99"/>
       <c r="C114" s="77" t="s">
         <v>368</v>
       </c>
@@ -5132,9 +5182,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="99"/>
-      <c r="B115" s="96"/>
+    <row r="115" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="101"/>
+      <c r="B115" s="99"/>
       <c r="C115" s="77" t="s">
         <v>369</v>
       </c>
@@ -5148,9 +5198,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="99"/>
-      <c r="B116" s="96"/>
+    <row r="116" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="101"/>
+      <c r="B116" s="99"/>
       <c r="C116" s="77" t="s">
         <v>370</v>
       </c>
@@ -5164,9 +5214,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="99"/>
-      <c r="B117" s="96"/>
+    <row r="117" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="101"/>
+      <c r="B117" s="99"/>
       <c r="C117" s="77" t="s">
         <v>371</v>
       </c>
@@ -5180,9 +5230,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="99"/>
-      <c r="B118" s="96"/>
+    <row r="118" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="101"/>
+      <c r="B118" s="99"/>
       <c r="C118" s="77" t="s">
         <v>372</v>
       </c>
@@ -5196,9 +5246,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="99"/>
-      <c r="B119" s="96"/>
+    <row r="119" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="101"/>
+      <c r="B119" s="99"/>
       <c r="C119" s="77" t="s">
         <v>373</v>
       </c>
@@ -5212,9 +5262,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="99"/>
-      <c r="B120" s="96"/>
+    <row r="120" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="101"/>
+      <c r="B120" s="99"/>
       <c r="C120" s="77" t="s">
         <v>374</v>
       </c>
@@ -5228,9 +5278,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="55" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="99"/>
-      <c r="B121" s="96"/>
+    <row r="121" spans="1:6" s="55" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="101"/>
+      <c r="B121" s="99"/>
       <c r="C121" s="77" t="s">
         <v>375</v>
       </c>
@@ -5244,9 +5294,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="99"/>
-      <c r="B122" s="96"/>
+    <row r="122" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="101"/>
+      <c r="B122" s="99"/>
       <c r="C122" s="77" t="s">
         <v>376</v>
       </c>
@@ -5260,9 +5310,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="99"/>
-      <c r="B123" s="96"/>
+    <row r="123" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="101"/>
+      <c r="B123" s="99"/>
       <c r="C123" s="77" t="s">
         <v>377</v>
       </c>
@@ -5276,9 +5326,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="99"/>
-      <c r="B124" s="96"/>
+    <row r="124" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="101"/>
+      <c r="B124" s="99"/>
       <c r="C124" s="77" t="s">
         <v>378</v>
       </c>
@@ -5292,9 +5342,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="99"/>
-      <c r="B125" s="96"/>
+    <row r="125" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="101"/>
+      <c r="B125" s="99"/>
       <c r="C125" s="77" t="s">
         <v>379</v>
       </c>
@@ -5308,9 +5358,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="99"/>
-      <c r="B126" s="96"/>
+    <row r="126" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="101"/>
+      <c r="B126" s="99"/>
       <c r="C126" s="77" t="s">
         <v>380</v>
       </c>
@@ -5324,9 +5374,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="99"/>
-      <c r="B127" s="96"/>
+    <row r="127" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="101"/>
+      <c r="B127" s="99"/>
       <c r="C127" s="77" t="s">
         <v>381</v>
       </c>
@@ -5340,9 +5390,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="99"/>
-      <c r="B128" s="96"/>
+    <row r="128" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="101"/>
+      <c r="B128" s="99"/>
       <c r="C128" s="77" t="s">
         <v>382</v>
       </c>
@@ -5356,9 +5406,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="99"/>
-      <c r="B129" s="96"/>
+    <row r="129" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="101"/>
+      <c r="B129" s="99"/>
       <c r="C129" s="77" t="s">
         <v>383</v>
       </c>
@@ -5372,9 +5422,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="99"/>
-      <c r="B130" s="96"/>
+    <row r="130" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="101"/>
+      <c r="B130" s="99"/>
       <c r="C130" s="77" t="s">
         <v>384</v>
       </c>
@@ -5388,9 +5438,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="99"/>
-      <c r="B131" s="96"/>
+    <row r="131" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="101"/>
+      <c r="B131" s="99"/>
       <c r="C131" s="77" t="s">
         <v>385</v>
       </c>
@@ -5404,9 +5454,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="99"/>
-      <c r="B132" s="96"/>
+    <row r="132" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="101"/>
+      <c r="B132" s="99"/>
       <c r="C132" s="77" t="s">
         <v>386</v>
       </c>
@@ -5420,9 +5470,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="99"/>
-      <c r="B133" s="96"/>
+    <row r="133" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="101"/>
+      <c r="B133" s="99"/>
       <c r="C133" s="77" t="s">
         <v>387</v>
       </c>
@@ -5436,9 +5486,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="99"/>
-      <c r="B134" s="96"/>
+    <row r="134" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="101"/>
+      <c r="B134" s="99"/>
       <c r="C134" s="77" t="s">
         <v>388</v>
       </c>
@@ -5452,9 +5502,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="99"/>
-      <c r="B135" s="96"/>
+    <row r="135" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="101"/>
+      <c r="B135" s="99"/>
       <c r="C135" s="77" t="s">
         <v>389</v>
       </c>
@@ -5468,9 +5518,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="99"/>
-      <c r="B136" s="96"/>
+    <row r="136" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="101"/>
+      <c r="B136" s="99"/>
       <c r="C136" s="77" t="s">
         <v>390</v>
       </c>
@@ -5484,9 +5534,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="99"/>
-      <c r="B137" s="96"/>
+    <row r="137" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="101"/>
+      <c r="B137" s="99"/>
       <c r="C137" s="77" t="s">
         <v>391</v>
       </c>
@@ -5500,9 +5550,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="99"/>
-      <c r="B138" s="96"/>
+    <row r="138" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="101"/>
+      <c r="B138" s="99"/>
       <c r="C138" s="77" t="s">
         <v>392</v>
       </c>
@@ -5516,9 +5566,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="99"/>
-      <c r="B139" s="96"/>
+    <row r="139" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="101"/>
+      <c r="B139" s="99"/>
       <c r="C139" s="77" t="s">
         <v>393</v>
       </c>
@@ -5532,9 +5582,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="99"/>
-      <c r="B140" s="96"/>
+    <row r="140" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="101"/>
+      <c r="B140" s="99"/>
       <c r="C140" s="77" t="s">
         <v>394</v>
       </c>
@@ -5548,9 +5598,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="99"/>
-      <c r="B141" s="96"/>
+    <row r="141" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="101"/>
+      <c r="B141" s="99"/>
       <c r="C141" s="77" t="s">
         <v>395</v>
       </c>
@@ -5564,9 +5614,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="99"/>
-      <c r="B142" s="96"/>
+    <row r="142" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="101"/>
+      <c r="B142" s="99"/>
       <c r="C142" s="77" t="s">
         <v>396</v>
       </c>
@@ -5580,9 +5630,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="99"/>
-      <c r="B143" s="96"/>
+    <row r="143" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="101"/>
+      <c r="B143" s="99"/>
       <c r="C143" s="77" t="s">
         <v>397</v>
       </c>
@@ -5596,9 +5646,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="99"/>
-      <c r="B144" s="96"/>
+    <row r="144" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="101"/>
+      <c r="B144" s="99"/>
       <c r="C144" s="77" t="s">
         <v>398</v>
       </c>
@@ -5612,9 +5662,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="99"/>
-      <c r="B145" s="96"/>
+    <row r="145" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="101"/>
+      <c r="B145" s="99"/>
       <c r="C145" s="77" t="s">
         <v>399</v>
       </c>
@@ -5628,9 +5678,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="99"/>
-      <c r="B146" s="96"/>
+    <row r="146" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="101"/>
+      <c r="B146" s="99"/>
       <c r="C146" s="77" t="s">
         <v>400</v>
       </c>
@@ -5644,9 +5694,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="99"/>
-      <c r="B147" s="96"/>
+    <row r="147" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="101"/>
+      <c r="B147" s="99"/>
       <c r="C147" s="77" t="s">
         <v>401</v>
       </c>
@@ -5660,9 +5710,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="99"/>
-      <c r="B148" s="96"/>
+    <row r="148" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="101"/>
+      <c r="B148" s="99"/>
       <c r="C148" s="77" t="s">
         <v>402</v>
       </c>
@@ -5676,9 +5726,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="99"/>
-      <c r="B149" s="96"/>
+    <row r="149" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="101"/>
+      <c r="B149" s="99"/>
       <c r="C149" s="77" t="s">
         <v>403</v>
       </c>
@@ -5692,9 +5742,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="99"/>
-      <c r="B150" s="96"/>
+    <row r="150" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="101"/>
+      <c r="B150" s="99"/>
       <c r="C150" s="77" t="s">
         <v>404</v>
       </c>
@@ -5708,9 +5758,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="99"/>
-      <c r="B151" s="96"/>
+    <row r="151" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="101"/>
+      <c r="B151" s="99"/>
       <c r="C151" s="77" t="s">
         <v>405</v>
       </c>
@@ -5724,9 +5774,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="99"/>
-      <c r="B152" s="96"/>
+    <row r="152" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="101"/>
+      <c r="B152" s="99"/>
       <c r="C152" s="77" t="s">
         <v>406</v>
       </c>
@@ -5740,9 +5790,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="99"/>
-      <c r="B153" s="96"/>
+    <row r="153" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="101"/>
+      <c r="B153" s="99"/>
       <c r="C153" s="77" t="s">
         <v>407</v>
       </c>
@@ -5756,9 +5806,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="99"/>
-      <c r="B154" s="96"/>
+    <row r="154" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="101"/>
+      <c r="B154" s="99"/>
       <c r="C154" s="77" t="s">
         <v>408</v>
       </c>
@@ -5772,9 +5822,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="99"/>
-      <c r="B155" s="96"/>
+    <row r="155" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="101"/>
+      <c r="B155" s="99"/>
       <c r="C155" s="77" t="s">
         <v>409</v>
       </c>
@@ -5788,9 +5838,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="99"/>
-      <c r="B156" s="96"/>
+    <row r="156" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="101"/>
+      <c r="B156" s="99"/>
       <c r="C156" s="77" t="s">
         <v>410</v>
       </c>
@@ -5804,9 +5854,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="99"/>
-      <c r="B157" s="96"/>
+    <row r="157" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="101"/>
+      <c r="B157" s="99"/>
       <c r="C157" s="77" t="s">
         <v>411</v>
       </c>
@@ -5820,9 +5870,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="99"/>
-      <c r="B158" s="96"/>
+    <row r="158" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="101"/>
+      <c r="B158" s="99"/>
       <c r="C158" s="77" t="s">
         <v>412</v>
       </c>
@@ -5836,9 +5886,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="99"/>
-      <c r="B159" s="96"/>
+    <row r="159" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="101"/>
+      <c r="B159" s="99"/>
       <c r="C159" s="77" t="s">
         <v>413</v>
       </c>
@@ -5852,9 +5902,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="99"/>
-      <c r="B160" s="96"/>
+    <row r="160" spans="1:6" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="101"/>
+      <c r="B160" s="99"/>
       <c r="C160" s="77" t="s">
         <v>414</v>
       </c>
@@ -5868,9 +5918,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="99"/>
-      <c r="B161" s="96"/>
+    <row r="161" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="101"/>
+      <c r="B161" s="99"/>
       <c r="C161" s="77" t="s">
         <v>415</v>
       </c>
@@ -5884,9 +5934,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="99"/>
-      <c r="B162" s="96"/>
+    <row r="162" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="101"/>
+      <c r="B162" s="99"/>
       <c r="C162" s="77" t="s">
         <v>416</v>
       </c>
@@ -5900,9 +5950,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="99"/>
-      <c r="B163" s="96"/>
+    <row r="163" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="101"/>
+      <c r="B163" s="99"/>
       <c r="C163" s="77" t="s">
         <v>417</v>
       </c>
@@ -5916,9 +5966,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="99"/>
-      <c r="B164" s="96"/>
+    <row r="164" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="101"/>
+      <c r="B164" s="99"/>
       <c r="C164" s="77" t="s">
         <v>418</v>
       </c>
@@ -5932,9 +5982,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="99"/>
-      <c r="B165" s="96"/>
+    <row r="165" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="101"/>
+      <c r="B165" s="99"/>
       <c r="C165" s="77" t="s">
         <v>419</v>
       </c>
@@ -5949,9 +5999,9 @@
       </c>
       <c r="P165" s="56"/>
     </row>
-    <row r="166" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="99"/>
-      <c r="B166" s="96"/>
+    <row r="166" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="101"/>
+      <c r="B166" s="99"/>
       <c r="C166" s="77" t="s">
         <v>420</v>
       </c>
@@ -5965,9 +6015,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="99"/>
-      <c r="B167" s="96"/>
+    <row r="167" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="101"/>
+      <c r="B167" s="99"/>
       <c r="C167" s="77" t="s">
         <v>421</v>
       </c>
@@ -5981,9 +6031,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="55" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="100"/>
-      <c r="B168" s="97"/>
+    <row r="168" spans="1:16" s="55" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="101"/>
+      <c r="B168" s="99"/>
       <c r="C168" s="77" t="s">
         <v>422</v>
       </c>
@@ -5997,398 +6047,390 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="85" t="s">
+    <row r="169" spans="1:16" s="55" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="101"/>
+      <c r="B169" s="99"/>
+      <c r="C169" s="77" t="s">
+        <v>570</v>
+      </c>
+      <c r="D169" s="86" t="s">
+        <v>571</v>
+      </c>
+      <c r="E169" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="F169" s="87"/>
+    </row>
+    <row r="170" spans="1:16" s="55" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="120"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="77" t="s">
+        <v>577</v>
+      </c>
+      <c r="D170" s="121" t="s">
+        <v>576</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F170" s="87"/>
+    </row>
+    <row r="171" spans="1:16" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="B169" s="101" t="s">
+      <c r="B171" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="C169" s="77" t="s">
+      <c r="C171" s="77" t="s">
         <v>423</v>
       </c>
-      <c r="D169" s="58" t="s">
+      <c r="D171" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="E169" s="42" t="s">
+      <c r="E171" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F169" s="62" t="s">
+      <c r="F171" s="62" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="86"/>
-      <c r="B170" s="102"/>
-      <c r="C170" s="77" t="s">
+    <row r="172" spans="1:16" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="92"/>
+      <c r="B172" s="97"/>
+      <c r="C172" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="D170" s="59" t="s">
+      <c r="D172" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E170" s="43" t="s">
+      <c r="E172" s="43" t="s">
         <v>219</v>
-      </c>
-      <c r="F170" s="63" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="86"/>
-      <c r="B171" s="102"/>
-      <c r="C171" s="77" t="s">
-        <v>425</v>
-      </c>
-      <c r="D171" s="79" t="s">
-        <v>566</v>
-      </c>
-      <c r="E171" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="F171" s="63" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="86"/>
-      <c r="B172" s="102"/>
-      <c r="C172" s="77" t="s">
-        <v>426</v>
-      </c>
-      <c r="D172" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="E172" s="67" t="s">
-        <v>214</v>
       </c>
       <c r="F172" s="63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="86"/>
-      <c r="B173" s="102"/>
+    <row r="173" spans="1:16" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="92"/>
+      <c r="B173" s="97"/>
       <c r="C173" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="D173" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="E173" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F173" s="63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="92"/>
+      <c r="B174" s="97"/>
+      <c r="C174" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="D174" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="E174" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="F174" s="63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="92"/>
+      <c r="B175" s="97"/>
+      <c r="C175" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="D173" s="60" t="s">
+      <c r="D175" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="E173" s="43" t="s">
+      <c r="E175" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="F173" s="63" t="s">
+      <c r="F175" s="63" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="86"/>
-      <c r="B174" s="102"/>
-      <c r="C174" s="77" t="s">
+    <row r="176" spans="1:16" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="92"/>
+      <c r="B176" s="97"/>
+      <c r="C176" s="77" t="s">
         <v>428</v>
       </c>
-      <c r="D174" s="60" t="s">
+      <c r="D176" s="60" t="s">
         <v>551</v>
       </c>
-      <c r="E174" s="43" t="s">
+      <c r="E176" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="F174" s="63" t="s">
+      <c r="F176" s="63" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="86"/>
-      <c r="B175" s="102"/>
-      <c r="C175" s="77" t="s">
+    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="92"/>
+      <c r="B177" s="97"/>
+      <c r="C177" s="77" t="s">
         <v>429</v>
       </c>
-      <c r="D175" s="61" t="s">
+      <c r="D177" s="61" t="s">
         <v>552</v>
       </c>
-      <c r="E175" s="43" t="s">
+      <c r="E177" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="F175" s="63" t="s">
+      <c r="F177" s="63" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="86"/>
-      <c r="B176" s="102"/>
-      <c r="C176" s="77" t="s">
+    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="92"/>
+      <c r="B178" s="97"/>
+      <c r="C178" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="D176" s="59" t="s">
+      <c r="D178" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="E176" s="43" t="s">
+      <c r="E178" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="F176" s="63"/>
-    </row>
-    <row r="177" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="86"/>
-      <c r="B177" s="102"/>
-      <c r="C177" s="77" t="s">
+      <c r="F178" s="63"/>
+    </row>
+    <row r="179" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="92"/>
+      <c r="B179" s="97"/>
+      <c r="C179" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D179" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="E177" s="43" t="s">
+      <c r="E179" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="F177" s="31"/>
-    </row>
-    <row r="178" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="86"/>
-      <c r="B178" s="102"/>
-      <c r="C178" s="77" t="s">
+      <c r="F179" s="31"/>
+    </row>
+    <row r="180" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="92"/>
+      <c r="B180" s="97"/>
+      <c r="C180" s="77" t="s">
         <v>432</v>
       </c>
-      <c r="D178" s="23" t="s">
+      <c r="D180" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E178" s="43" t="s">
+      <c r="E180" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="F178" s="31"/>
-    </row>
-    <row r="179" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="87"/>
-      <c r="B179" s="102"/>
-      <c r="C179" s="77" t="s">
+      <c r="F180" s="31"/>
+    </row>
+    <row r="181" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="92"/>
+      <c r="B181" s="97"/>
+      <c r="C181" s="77" t="s">
         <v>433</v>
       </c>
-      <c r="D179" s="84" t="s">
+      <c r="D181" s="84" t="s">
         <v>542</v>
       </c>
-      <c r="E179" s="68" t="s">
+      <c r="E181" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="F179" s="71"/>
-    </row>
-    <row r="180" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="91" t="s">
+      <c r="F181" s="71"/>
+    </row>
+    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="92"/>
+      <c r="B182" s="97"/>
+      <c r="C182" s="77" t="s">
+        <v>572</v>
+      </c>
+      <c r="D182" s="86" t="s">
+        <v>573</v>
+      </c>
+      <c r="E182" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="F182" s="87"/>
+    </row>
+    <row r="183" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="92"/>
+      <c r="B183" s="119"/>
+      <c r="C183" s="77" t="s">
+        <v>574</v>
+      </c>
+      <c r="D183" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="E183" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="F183" s="87"/>
+    </row>
+    <row r="184" spans="1:6" s="57" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="B180" s="93" t="s">
+      <c r="B184" s="117" t="s">
         <v>455</v>
       </c>
-      <c r="C180" s="77" t="s">
+      <c r="C184" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="D180" s="82" t="s">
+      <c r="D184" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="E184" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="F180" s="83"/>
-    </row>
-    <row r="181" spans="1:6" s="57" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="92"/>
-      <c r="B181" s="94"/>
-      <c r="C181" s="77" t="s">
+      <c r="F184" s="83"/>
+    </row>
+    <row r="185" spans="1:6" s="57" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="95"/>
+      <c r="B185" s="96"/>
+      <c r="C185" s="77" t="s">
         <v>435</v>
       </c>
-      <c r="D181" s="72" t="s">
+      <c r="D185" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="E181" s="20" t="s">
+      <c r="E185" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="F181" s="45"/>
-    </row>
-    <row r="182" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="106" t="s">
+      <c r="F185" s="45"/>
+    </row>
+    <row r="186" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="B182" s="109" t="s">
+      <c r="B186" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="C182" s="77" t="s">
+      <c r="C186" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="D182" s="70" t="s">
+      <c r="D186" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="E182" s="81" t="s">
+      <c r="E186" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="F182" s="76" t="s">
+      <c r="F186" s="76" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="107"/>
-      <c r="B183" s="110"/>
-      <c r="C183" s="77" t="s">
+    <row r="187" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="106"/>
+      <c r="B187" s="109"/>
+      <c r="C187" s="77" t="s">
         <v>437</v>
       </c>
-      <c r="D183" s="21" t="s">
+      <c r="D187" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="E183" s="46" t="s">
+      <c r="E187" s="46" t="s">
         <v>505</v>
-      </c>
-      <c r="F183" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="107"/>
-      <c r="B184" s="110"/>
-      <c r="C184" s="77" t="s">
-        <v>438</v>
-      </c>
-      <c r="D184" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="E184" s="46" t="s">
-        <v>505</v>
-      </c>
-      <c r="F184" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="107"/>
-      <c r="B185" s="110"/>
-      <c r="C185" s="77" t="s">
-        <v>439</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E185" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="F185" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="107"/>
-      <c r="B186" s="110"/>
-      <c r="C186" s="77" t="s">
-        <v>440</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="E186" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="F186" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="107"/>
-      <c r="B187" s="110"/>
-      <c r="C187" s="77" t="s">
-        <v>441</v>
-      </c>
-      <c r="D187" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E187" s="46" t="s">
-        <v>514</v>
       </c>
       <c r="F187" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="107"/>
-      <c r="B188" s="110"/>
+    <row r="188" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="106"/>
+      <c r="B188" s="109"/>
       <c r="C188" s="77" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E188" s="47" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="E188" s="46" t="s">
+        <v>505</v>
       </c>
       <c r="F188" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="107"/>
-      <c r="B189" s="110"/>
+    <row r="189" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="106"/>
+      <c r="B189" s="109"/>
       <c r="C189" s="77" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E189" s="46" t="s">
-        <v>506</v>
+        <v>230</v>
+      </c>
+      <c r="E189" s="47" t="s">
+        <v>231</v>
       </c>
       <c r="F189" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="107"/>
-      <c r="B190" s="110"/>
+    <row r="190" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="106"/>
+      <c r="B190" s="109"/>
       <c r="C190" s="77" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E190" s="46" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F190" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="107"/>
-      <c r="B191" s="110"/>
+    <row r="191" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="106"/>
+      <c r="B191" s="109"/>
       <c r="C191" s="77" t="s">
-        <v>445</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>555</v>
+        <v>441</v>
+      </c>
+      <c r="D191" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E191" s="46" t="s">
+        <v>514</v>
       </c>
       <c r="F191" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="107"/>
-      <c r="B192" s="110"/>
+    <row r="192" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="106"/>
+      <c r="B192" s="109"/>
       <c r="C192" s="77" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E192" s="46" t="s">
-        <v>508</v>
+        <v>232</v>
+      </c>
+      <c r="E192" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="F192" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="107"/>
-      <c r="B193" s="110"/>
+    <row r="193" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="106"/>
+      <c r="B193" s="109"/>
       <c r="C193" s="77" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E193" s="46" t="s">
         <v>506</v>
@@ -6397,340 +6439,404 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="107"/>
-      <c r="B194" s="110"/>
+    <row r="194" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="106"/>
+      <c r="B194" s="109"/>
       <c r="C194" s="77" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E194" s="46" t="s">
-        <v>237</v>
+        <v>507</v>
       </c>
       <c r="F194" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="107"/>
-      <c r="B195" s="110"/>
+    <row r="195" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="106"/>
+      <c r="B195" s="109"/>
       <c r="C195" s="77" t="s">
-        <v>449</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="E195" s="46" t="s">
-        <v>509</v>
+        <v>445</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="F195" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="107"/>
-      <c r="B196" s="110"/>
+    <row r="196" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="106"/>
+      <c r="B196" s="109"/>
       <c r="C196" s="77" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>559</v>
+        <v>235</v>
       </c>
       <c r="E196" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F196" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="107"/>
-      <c r="B197" s="110"/>
+    <row r="197" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="106"/>
+      <c r="B197" s="109"/>
       <c r="C197" s="77" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>560</v>
+        <v>236</v>
       </c>
       <c r="E197" s="46" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F197" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="107"/>
-      <c r="B198" s="110"/>
+    <row r="198" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="106"/>
+      <c r="B198" s="109"/>
       <c r="C198" s="77" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E198" s="46" t="s">
-        <v>556</v>
+        <v>237</v>
       </c>
       <c r="F198" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="107"/>
-      <c r="B199" s="110"/>
+    <row r="199" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="106"/>
+      <c r="B199" s="109"/>
       <c r="C199" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>562</v>
+        <v>449</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>558</v>
       </c>
       <c r="E199" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F199" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="107"/>
-      <c r="B200" s="111"/>
+    <row r="200" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="106"/>
+      <c r="B200" s="109"/>
       <c r="C200" s="77" t="s">
-        <v>461</v>
-      </c>
-      <c r="D200" s="69" t="s">
-        <v>545</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>546</v>
+        <v>450</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="E200" s="46" t="s">
+        <v>509</v>
       </c>
       <c r="F200" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="107"/>
-      <c r="B201" s="111"/>
+    <row r="201" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="106"/>
+      <c r="B201" s="109"/>
       <c r="C201" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="D201" s="69" t="s">
-        <v>544</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>546</v>
+        <v>451</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E201" s="46" t="s">
+        <v>509</v>
       </c>
       <c r="F201" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="108"/>
-      <c r="B202" s="112"/>
+    <row r="202" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="106"/>
+      <c r="B202" s="109"/>
       <c r="C202" s="77" t="s">
+        <v>452</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E202" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="F202" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="106"/>
+      <c r="B203" s="109"/>
+      <c r="C203" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E203" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="F203" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="106"/>
+      <c r="B204" s="110"/>
+      <c r="C204" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="D204" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F204" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="106"/>
+      <c r="B205" s="110"/>
+      <c r="C205" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="D205" s="69" t="s">
+        <v>544</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F205" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="107"/>
+      <c r="B206" s="111"/>
+      <c r="C206" s="77" t="s">
         <v>463</v>
       </c>
-      <c r="D202" s="20" t="s">
+      <c r="D206" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="E202" s="48" t="s">
+      <c r="E206" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="F202" s="37" t="s">
+      <c r="F206" s="37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="55" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="85" t="s">
+    <row r="207" spans="1:6" s="55" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="B203" s="88" t="s">
+      <c r="B207" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="C203" s="77" t="s">
+      <c r="C207" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="D203" s="13" t="s">
+      <c r="D207" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E203" s="49" t="s">
+      <c r="E207" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="F203" s="15" t="s">
+      <c r="F207" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="86"/>
-      <c r="B204" s="89"/>
-      <c r="C204" s="77" t="s">
+    <row r="208" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="89"/>
+      <c r="B208" s="92"/>
+      <c r="C208" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D208" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E204" s="50" t="s">
+      <c r="E208" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="F204" s="16" t="s">
+      <c r="F208" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="86"/>
-      <c r="B205" s="89"/>
-      <c r="C205" s="77" t="s">
+    <row r="209" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="89"/>
+      <c r="B209" s="92"/>
+      <c r="C209" s="77" t="s">
         <v>466</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D209" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E205" s="50" t="s">
+      <c r="E209" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="F205" s="16" t="s">
+      <c r="F209" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="86"/>
-      <c r="B206" s="89"/>
-      <c r="C206" s="77" t="s">
+    <row r="210" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="89"/>
+      <c r="B210" s="92"/>
+      <c r="C210" s="77" t="s">
         <v>467</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="D210" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E206" s="50" t="s">
+      <c r="E210" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="F206" s="51" t="s">
+      <c r="F210" s="51" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="86"/>
-      <c r="B207" s="89"/>
-      <c r="C207" s="77" t="s">
+    <row r="211" spans="1:6" s="55" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="89"/>
+      <c r="B211" s="92"/>
+      <c r="C211" s="77" t="s">
         <v>468</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="D211" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="E207" s="50" t="s">
+      <c r="E211" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F207" s="52"/>
-    </row>
-    <row r="208" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="86"/>
-      <c r="B208" s="89"/>
-      <c r="C208" s="77" t="s">
+      <c r="F211" s="52"/>
+    </row>
+    <row r="212" spans="1:6" s="55" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="89"/>
+      <c r="B212" s="92"/>
+      <c r="C212" s="77" t="s">
         <v>469</v>
       </c>
-      <c r="D208" s="22" t="s">
+      <c r="D212" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="E208" s="50" t="s">
+      <c r="E212" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="F208" s="52"/>
-    </row>
-    <row r="209" spans="1:6" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="86"/>
-      <c r="B209" s="89"/>
-      <c r="C209" s="77" t="s">
+      <c r="F212" s="52"/>
+    </row>
+    <row r="213" spans="1:6" s="55" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="89"/>
+      <c r="B213" s="92"/>
+      <c r="C213" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D213" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E209" s="50" t="s">
+      <c r="E213" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="F209" s="52"/>
-    </row>
-    <row r="210" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="86"/>
-      <c r="B210" s="89"/>
-      <c r="C210" s="77" t="s">
+      <c r="F213" s="52"/>
+    </row>
+    <row r="214" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="89"/>
+      <c r="B214" s="92"/>
+      <c r="C214" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D214" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E210" s="50" t="s">
+      <c r="E214" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="F210" s="16" t="s">
+      <c r="F214" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="86"/>
-      <c r="B211" s="89"/>
-      <c r="C211" s="77" t="s">
+    <row r="215" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="89"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="D211" s="12" t="s">
+      <c r="D215" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E211" s="50" t="s">
+      <c r="E215" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F211" s="16" t="s">
+      <c r="F215" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="86"/>
-      <c r="B212" s="89"/>
-      <c r="C212" s="77" t="s">
+    <row r="216" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="89"/>
+      <c r="B216" s="92"/>
+      <c r="C216" s="77" t="s">
         <v>473</v>
       </c>
-      <c r="D212" s="23" t="s">
+      <c r="D216" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E212" s="50" t="s">
+      <c r="E216" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="F212" s="16" t="s">
+      <c r="F216" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="55" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="87"/>
-      <c r="B213" s="90"/>
-      <c r="C213" s="77" t="s">
+    <row r="217" spans="1:6" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="90"/>
+      <c r="B217" s="93"/>
+      <c r="C217" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="D213" s="24" t="s">
+      <c r="D217" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E213" s="53" t="s">
+      <c r="E217" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="F213" s="54" t="s">
+      <c r="F217" s="54" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B77:B169"/>
+    <mergeCell ref="A77:A169"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="B2:B14"/>
-    <mergeCell ref="A182:A202"/>
-    <mergeCell ref="B182:B202"/>
+    <mergeCell ref="A186:A206"/>
+    <mergeCell ref="B186:B206"/>
     <mergeCell ref="A15:A76"/>
     <mergeCell ref="B15:B76"/>
-    <mergeCell ref="A203:A213"/>
-    <mergeCell ref="B203:B213"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B77:B168"/>
-    <mergeCell ref="A77:A168"/>
-    <mergeCell ref="A169:A179"/>
-    <mergeCell ref="B169:B179"/>
+    <mergeCell ref="A171:A183"/>
+    <mergeCell ref="B171:B183"/>
+    <mergeCell ref="A207:A217"/>
+    <mergeCell ref="B207:B217"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -6837,36 +6943,36 @@
     <hyperlink ref="F157:F160" r:id="rId101" display="https://drive.google.com/file/d/1Jy_e9Jo4LOYjeRyiDh5a9GGP4-lK-60G/view" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="F162:F164" r:id="rId102" display="https://drive.google.com/file/d/1KegBLv8joGC6jIhBCV9T9dsWY0Idps_5/view" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="F166:F168" r:id="rId103" display="https://drive.google.com/file/d/1NTtIdWMrKSuJ8n3va-A1UJ25cmjYe8XC/view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F174" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="F182" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F183" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="F184" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F185" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F186" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F188" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="F189" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F193" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F194" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F198" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="F199" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F202" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F197" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F196" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="F195" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F192" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="F190" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="F203" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="F206" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F210" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="F212" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F204" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="F205" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="F211" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="F213" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F187" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="F200" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="F201" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="F191" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F176" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F186" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F187" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F188" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F189" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F190" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F192" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F193" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F197" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F198" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F202" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F203" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F206" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F201" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F200" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F199" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F196" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F194" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F207" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F210" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F214" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F216" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F208" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F209" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F215" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F217" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F191" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F204" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F205" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F195" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId134"/>
